--- a/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
+++ b/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB514197\Repos\DECAT_Space2Stats\space2stats_api\src\space2stats_ingest\METADATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F099342D-4158-446C-B4BE-1127804A4FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B8E50E-4D3D-47E4-A040-B9B5A32FCC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Catalog" sheetId="4" r:id="rId1"/>
@@ -1088,19 +1088,19 @@
     <t>Item</t>
   </si>
   <si>
-    <t>nighttime-lights-2013</t>
-  </si>
-  <si>
-    <t>population-2020</t>
-  </si>
-  <si>
-    <t>flood-exposure-15cm-1in100</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
     <t>Climate</t>
+  </si>
+  <si>
+    <t>space2stats_population_2020</t>
+  </si>
+  <si>
+    <t>nighttime_lights_2013</t>
+  </si>
+  <si>
+    <t>flood_exposure_15cm_1in100</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1189,7 +1189,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1637,8 +1636,8 @@
   </sheetPr>
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1682,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1693,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1704,7 +1703,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1715,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1726,7 +1725,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,7 +1736,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1748,7 +1747,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1759,7 +1758,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,7 +1769,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,7 +1780,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1792,7 +1791,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1803,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1814,7 +1813,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1825,7 +1824,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1836,7 +1835,7 @@
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1847,7 +1846,7 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1858,7 +1857,7 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1880,7 +1879,7 @@
         <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,7 +1890,7 @@
         <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1902,7 +1901,7 @@
         <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1913,7 +1912,7 @@
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,7 +1923,7 @@
         <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,7 +1934,7 @@
         <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1946,7 +1945,7 @@
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1957,7 +1956,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1968,7 +1967,7 @@
         <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1979,7 +1978,7 @@
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1990,7 +1989,7 @@
         <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2001,7 +2000,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2012,7 +2011,7 @@
         <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2023,7 +2022,7 @@
         <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2034,7 +2033,7 @@
         <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2045,7 +2044,7 @@
         <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2056,7 +2055,7 @@
         <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,7 +2066,7 @@
         <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2078,7 +2077,7 @@
         <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2089,7 +2088,7 @@
         <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2100,7 +2099,7 @@
         <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2111,7 +2110,7 @@
         <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2154,7 +2153,7 @@
         <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2165,7 +2164,7 @@
         <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2176,7 +2175,7 @@
         <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2187,7 +2186,7 @@
         <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2198,7 +2197,7 @@
         <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2209,7 +2208,7 @@
         <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2220,7 +2219,7 @@
         <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2231,7 +2230,7 @@
         <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2242,7 +2241,7 @@
         <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2253,7 +2252,7 @@
         <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2264,7 +2263,7 @@
         <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2275,7 +2274,7 @@
         <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2286,7 +2285,7 @@
         <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,7 +2296,7 @@
         <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2308,7 +2307,7 @@
         <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2319,7 +2318,7 @@
         <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2330,7 +2329,7 @@
         <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2341,7 +2340,7 @@
         <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2352,7 +2351,7 @@
         <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2363,7 +2362,7 @@
         <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2374,7 +2373,7 @@
         <v>135</v>
       </c>
       <c r="D67" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2385,7 +2384,7 @@
         <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2396,7 +2395,7 @@
         <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2407,7 +2406,7 @@
         <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2418,7 +2417,7 @@
         <v>143</v>
       </c>
       <c r="D71" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2429,7 +2428,7 @@
         <v>145</v>
       </c>
       <c r="D72" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2440,7 +2439,7 @@
         <v>147</v>
       </c>
       <c r="D73" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2451,7 +2450,7 @@
         <v>149</v>
       </c>
       <c r="D74" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2462,7 +2461,7 @@
         <v>151</v>
       </c>
       <c r="D75" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2473,7 +2472,7 @@
         <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2484,7 +2483,7 @@
         <v>155</v>
       </c>
       <c r="D77" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2495,7 +2494,7 @@
         <v>157</v>
       </c>
       <c r="D78" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2506,7 +2505,7 @@
         <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,7 +2516,7 @@
         <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2528,7 +2527,7 @@
         <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2539,7 +2538,7 @@
         <v>165</v>
       </c>
       <c r="D82" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2550,7 +2549,7 @@
         <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2561,7 +2560,7 @@
         <v>169</v>
       </c>
       <c r="D84" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2572,7 +2571,7 @@
         <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2583,7 +2582,7 @@
         <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2594,7 +2593,7 @@
         <v>175</v>
       </c>
       <c r="D87" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2605,7 +2604,7 @@
         <v>177</v>
       </c>
       <c r="D88" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2616,7 +2615,7 @@
         <v>179</v>
       </c>
       <c r="D89" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2627,7 +2626,7 @@
         <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2638,7 +2637,7 @@
         <v>183</v>
       </c>
       <c r="D91" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2649,7 +2648,7 @@
         <v>185</v>
       </c>
       <c r="D92" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2660,7 +2659,7 @@
         <v>187</v>
       </c>
       <c r="D93" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2671,7 +2670,7 @@
         <v>189</v>
       </c>
       <c r="D94" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2682,7 +2681,7 @@
         <v>343</v>
       </c>
       <c r="D95" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2693,7 +2692,7 @@
         <v>344</v>
       </c>
       <c r="D96" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2704,7 +2703,7 @@
         <v>345</v>
       </c>
       <c r="D97" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2723,8 +2722,8 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,91 +2737,91 @@
     <col min="7" max="7" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="J2" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>212</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -2832,12 +2831,12 @@
         <v>213</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>214</v>
@@ -2864,36 +2863,36 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2997,7 +2996,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -3010,7 +3009,7 @@
     <col min="3" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>238</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>241</v>
       </c>
@@ -3026,7 +3025,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>316</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>320</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>322</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>324</v>
       </c>
@@ -3074,18 +3073,17 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>326</v>
       </c>
       <c r="B10"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>322</v>
       </c>
@@ -3093,7 +3091,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>327</v>
       </c>
@@ -3101,7 +3099,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -3109,7 +3107,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -3117,7 +3115,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>333</v>
       </c>
@@ -3125,7 +3123,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>335</v>
       </c>
@@ -3133,7 +3131,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -3141,7 +3139,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>337</v>
       </c>
@@ -3149,62 +3147,61 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>339</v>
       </c>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
     </row>

--- a/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
+++ b/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB514197\Repos\DECAT_Space2Stats\space2stats_api\src\space2stats_ingest\METADATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WBG\Work\Code\DECAT_Space2Stats\space2stats_api\src\space2stats_ingest\METADATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B8E50E-4D3D-47E4-A040-B9B5A32FCC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75951DD-AF03-4EED-B6EC-24A912A59526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="392">
   <si>
     <t>variable</t>
   </si>
@@ -1101,13 +1101,127 @@
   </si>
   <si>
     <t>flood_exposure_15cm_1in100</t>
+  </si>
+  <si>
+    <t>Urbanization</t>
+  </si>
+  <si>
+    <t>Urbanization by population and by area</t>
+  </si>
+  <si>
+    <t>Urbanization is analyzed using the GHS-SMOD dataset, including comparisons with population</t>
+  </si>
+  <si>
+    <t>Global Human Settlement Layer (https://human-settlement.emergency.copernicus.eu/degurbaDefinitions.php)</t>
+  </si>
+  <si>
+    <t>Pesaresi M., Ehrlich D., Ferri S., Florczyk A.J., Freire S., Halkia S., Julea A.M., Kemper T., Soille P. and V. Syrris. Operating procedure for the production of the Global Human Settlement Layer from Landsat data of the epochs 1975, 1990, 2000, and 2014. Publications Office of the European Union, EUR 27741 EN, 2016. doi: 10.2788/253582.</t>
+  </si>
+  <si>
+    <t>Copernicus Emergency Management Service</t>
+  </si>
+  <si>
+    <t>1000m</t>
+  </si>
+  <si>
+    <t>11_POP</t>
+  </si>
+  <si>
+    <t>12_POP</t>
+  </si>
+  <si>
+    <t>13_POP</t>
+  </si>
+  <si>
+    <t>21_POP</t>
+  </si>
+  <si>
+    <t>22_POP</t>
+  </si>
+  <si>
+    <t>23_POP</t>
+  </si>
+  <si>
+    <t>30_POP</t>
+  </si>
+  <si>
+    <t>TOTAL_POP</t>
+  </si>
+  <si>
+    <t>COUNT_11</t>
+  </si>
+  <si>
+    <t>COUNT_12</t>
+  </si>
+  <si>
+    <t>COUNT_13</t>
+  </si>
+  <si>
+    <t>COUNT_21</t>
+  </si>
+  <si>
+    <t>COUNT_22</t>
+  </si>
+  <si>
+    <t>COUNT_23</t>
+  </si>
+  <si>
+    <t>COUNT_30</t>
+  </si>
+  <si>
+    <t>Total population in low density rural areas</t>
+  </si>
+  <si>
+    <t>Total population in very low density areas</t>
+  </si>
+  <si>
+    <t>Total population in rural areas</t>
+  </si>
+  <si>
+    <t>Total population in suburban grid cells</t>
+  </si>
+  <si>
+    <t>Total population in semi-dense urban clusters</t>
+  </si>
+  <si>
+    <t>Total population in dense urban clusters</t>
+  </si>
+  <si>
+    <t>Total population in urban centres</t>
+  </si>
+  <si>
+    <t>Total population based on GHS-Pop population</t>
+  </si>
+  <si>
+    <t>Total number of cells in very low density areas</t>
+  </si>
+  <si>
+    <t>Total number of cells in low density rural areas</t>
+  </si>
+  <si>
+    <t>Total number of cells in rural areas</t>
+  </si>
+  <si>
+    <t>Total number of cells in suburban grid cells</t>
+  </si>
+  <si>
+    <t>Total number of cells in semi-dense urban clusters</t>
+  </si>
+  <si>
+    <t>Total number of cells in dense urban clusters</t>
+  </si>
+  <si>
+    <t>Total number of cells in urban centres</t>
+  </si>
+  <si>
+    <t>urbanization_ghssmod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,8 +1245,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,6 +1278,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1176,11 +1302,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1201,8 +1328,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1224,7 +1356,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1634,21 +1766,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98:D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1794,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1673,7 +1805,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1684,7 +1816,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1827,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1706,7 +1838,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1717,7 +1849,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1728,7 +1860,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1739,7 +1871,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1750,7 +1882,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1761,7 +1893,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1772,7 +1904,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +1915,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1794,7 +1926,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1805,7 +1937,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1816,7 +1948,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1827,7 +1959,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1838,7 +1970,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1849,7 +1981,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1860,7 +1992,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1871,7 +2003,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1882,7 +2014,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1893,7 +2025,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1904,7 +2036,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1915,7 +2047,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1926,7 +2058,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1937,7 +2069,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1948,7 +2080,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1959,7 +2091,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1970,7 +2102,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1981,7 +2113,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1992,7 +2124,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2003,7 +2135,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2014,7 +2146,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2025,7 +2157,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2036,7 +2168,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2047,7 +2179,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2058,7 +2190,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2069,7 +2201,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2080,7 +2212,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2091,7 +2223,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2102,7 +2234,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2113,7 +2245,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2121,7 +2253,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -2129,7 +2261,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -2137,7 +2269,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -2145,7 +2277,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2156,7 +2288,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -2167,7 +2299,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -2178,7 +2310,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -2189,7 +2321,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -2200,7 +2332,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -2211,7 +2343,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -2222,7 +2354,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -2233,7 +2365,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>110</v>
       </c>
@@ -2244,7 +2376,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -2255,7 +2387,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -2266,7 +2398,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -2277,7 +2409,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -2288,7 +2420,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -2299,7 +2431,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -2310,7 +2442,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>124</v>
       </c>
@@ -2321,7 +2453,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -2332,7 +2464,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>128</v>
       </c>
@@ -2343,7 +2475,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -2354,7 +2486,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>132</v>
       </c>
@@ -2365,7 +2497,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>134</v>
       </c>
@@ -2376,7 +2508,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>136</v>
       </c>
@@ -2387,7 +2519,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>138</v>
       </c>
@@ -2398,7 +2530,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>140</v>
       </c>
@@ -2409,7 +2541,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>142</v>
       </c>
@@ -2420,7 +2552,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>144</v>
       </c>
@@ -2431,7 +2563,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>146</v>
       </c>
@@ -2442,7 +2574,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>148</v>
       </c>
@@ -2453,7 +2585,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>150</v>
       </c>
@@ -2464,7 +2596,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -2475,7 +2607,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>154</v>
       </c>
@@ -2486,7 +2618,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -2497,7 +2629,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -2508,7 +2640,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -2519,7 +2651,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>162</v>
       </c>
@@ -2530,7 +2662,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -2541,7 +2673,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -2552,7 +2684,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>168</v>
       </c>
@@ -2563,7 +2695,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -2574,7 +2706,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>172</v>
       </c>
@@ -2585,7 +2717,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>174</v>
       </c>
@@ -2596,7 +2728,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>176</v>
       </c>
@@ -2607,7 +2739,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>178</v>
       </c>
@@ -2618,7 +2750,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>180</v>
       </c>
@@ -2629,7 +2761,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>182</v>
       </c>
@@ -2640,7 +2772,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>184</v>
       </c>
@@ -2651,7 +2783,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -2662,7 +2794,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -2673,7 +2805,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>340</v>
       </c>
@@ -2684,7 +2816,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>341</v>
       </c>
@@ -2695,7 +2827,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>342</v>
       </c>
@@ -2704,6 +2836,171 @@
       </c>
       <c r="D97" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>361</v>
+      </c>
+      <c r="B98" t="s">
+        <v>377</v>
+      </c>
+      <c r="D98" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>362</v>
+      </c>
+      <c r="B99" t="s">
+        <v>376</v>
+      </c>
+      <c r="D99" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>363</v>
+      </c>
+      <c r="B100" t="s">
+        <v>378</v>
+      </c>
+      <c r="D100" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>364</v>
+      </c>
+      <c r="B101" t="s">
+        <v>379</v>
+      </c>
+      <c r="D101" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>365</v>
+      </c>
+      <c r="B102" t="s">
+        <v>380</v>
+      </c>
+      <c r="D102" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>366</v>
+      </c>
+      <c r="B103" t="s">
+        <v>381</v>
+      </c>
+      <c r="D103" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>367</v>
+      </c>
+      <c r="B104" t="s">
+        <v>382</v>
+      </c>
+      <c r="D104" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>368</v>
+      </c>
+      <c r="B105" t="s">
+        <v>383</v>
+      </c>
+      <c r="D105" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>369</v>
+      </c>
+      <c r="B106" t="s">
+        <v>384</v>
+      </c>
+      <c r="D106" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>370</v>
+      </c>
+      <c r="B107" t="s">
+        <v>385</v>
+      </c>
+      <c r="D107" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>371</v>
+      </c>
+      <c r="B108" t="s">
+        <v>386</v>
+      </c>
+      <c r="D108" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>372</v>
+      </c>
+      <c r="B109" t="s">
+        <v>387</v>
+      </c>
+      <c r="D109" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>373</v>
+      </c>
+      <c r="B110" t="s">
+        <v>388</v>
+      </c>
+      <c r="D110" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>374</v>
+      </c>
+      <c r="B111" t="s">
+        <v>389</v>
+      </c>
+      <c r="D111" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>375</v>
+      </c>
+      <c r="B112" t="s">
+        <v>390</v>
+      </c>
+      <c r="D112" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -2722,25 +3019,25 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>190</v>
       </c>
@@ -2772,7 +3069,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>199</v>
       </c>
@@ -2804,7 +3101,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>207</v>
       </c>
@@ -2834,7 +3131,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>350</v>
       </c>
@@ -2863,7 +3160,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>350</v>
       </c>
@@ -2895,7 +3192,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -2924,7 +3221,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>225</v>
       </c>
@@ -2953,35 +3250,66 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3002,14 +3330,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>238</v>
       </c>
@@ -3017,7 +3345,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>241</v>
       </c>
@@ -3025,7 +3353,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -3033,7 +3361,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>316</v>
       </c>
@@ -3041,7 +3369,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -3049,7 +3377,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>320</v>
       </c>
@@ -3057,7 +3385,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>322</v>
       </c>
@@ -3065,7 +3393,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>324</v>
       </c>
@@ -3073,17 +3401,17 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>326</v>
       </c>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>322</v>
       </c>
@@ -3091,7 +3419,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>327</v>
       </c>
@@ -3099,7 +3427,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -3107,7 +3435,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -3115,7 +3443,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>333</v>
       </c>
@@ -3123,7 +3451,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>335</v>
       </c>
@@ -3131,7 +3459,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -3139,7 +3467,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>337</v>
       </c>
@@ -3147,61 +3475,61 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>339</v>
       </c>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
     </row>
@@ -3224,14 +3552,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -3242,7 +3570,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -3253,7 +3581,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>240</v>
       </c>
@@ -3264,7 +3592,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>240</v>
       </c>
@@ -3275,7 +3603,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -3286,7 +3614,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>240</v>
       </c>
@@ -3297,7 +3625,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>240</v>
       </c>
@@ -3306,7 +3634,7 @@
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -3317,7 +3645,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -3328,7 +3656,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -3337,7 +3665,7 @@
       </c>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>240</v>
       </c>
@@ -3348,7 +3676,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>240</v>
       </c>
@@ -3357,7 +3685,7 @@
       </c>
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>240</v>
       </c>
@@ -3368,7 +3696,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>240</v>
       </c>
@@ -3379,7 +3707,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>240</v>
       </c>
@@ -3390,7 +3718,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>240</v>
       </c>
@@ -3399,7 +3727,7 @@
       </c>
       <c r="C16"/>
     </row>
-    <row r="17" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>240</v>
       </c>
@@ -3410,7 +3738,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>240</v>
       </c>
@@ -3421,7 +3749,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>240</v>
       </c>
@@ -3432,7 +3760,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>240</v>
       </c>
@@ -3441,7 +3769,7 @@
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>240</v>
       </c>
@@ -3452,7 +3780,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>240</v>
       </c>
@@ -3463,7 +3791,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -3474,7 +3802,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>278</v>
       </c>
@@ -3485,7 +3813,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>278</v>
       </c>
@@ -3496,7 +3824,7 @@
         <v>179.99999095999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>278</v>
       </c>
@@ -3507,7 +3835,7 @@
         <v>-179.99999561999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>278</v>
       </c>
@@ -3518,7 +3846,7 @@
         <v>89.987504549999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -3529,7 +3857,7 @@
         <v>-89.987504549999997</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>278</v>
       </c>
@@ -3538,7 +3866,7 @@
       </c>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>278</v>
       </c>
@@ -3549,7 +3877,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>278</v>
       </c>
@@ -3560,7 +3888,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>289</v>
       </c>
@@ -3571,7 +3899,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>289</v>
       </c>
@@ -3582,7 +3910,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>289</v>
       </c>
@@ -3593,7 +3921,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>295</v>
       </c>
@@ -3602,7 +3930,7 @@
       </c>
       <c r="C35"/>
     </row>
-    <row r="36" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>295</v>
       </c>
@@ -3613,7 +3941,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>295</v>
       </c>
@@ -3624,7 +3952,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>295</v>
       </c>
@@ -3635,7 +3963,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>302</v>
       </c>
@@ -3646,7 +3974,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>302</v>
       </c>
@@ -3657,7 +3985,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>302</v>
       </c>
@@ -3668,7 +3996,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>309</v>
       </c>
@@ -3679,7 +4007,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>309</v>
       </c>
@@ -3690,7 +4018,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>309</v>
       </c>
@@ -3701,7 +4029,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>309</v>
       </c>
@@ -3712,11 +4040,11 @@
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46"/>
       <c r="C46"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47"/>
       <c r="C47"/>
     </row>

--- a/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
+++ b/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WBG\Work\Code\DECAT_Space2Stats\space2stats_api\src\space2stats_ingest\METADATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75951DD-AF03-4EED-B6EC-24A912A59526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16861C5F-261D-4FF4-9657-D0FD76D87B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Catalog" sheetId="4" r:id="rId1"/>
@@ -1768,7 +1768,7 @@
   </sheetPr>
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
       <selection activeCell="D98" sqref="D98:D112"/>
     </sheetView>
   </sheetViews>
@@ -2845,7 +2845,7 @@
       <c r="B98" t="s">
         <v>377</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       <c r="B99" t="s">
         <v>376</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       <c r="B100" t="s">
         <v>378</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2878,7 +2878,7 @@
       <c r="B101" t="s">
         <v>379</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       <c r="B102" t="s">
         <v>380</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
       <c r="B103" t="s">
         <v>381</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       <c r="B104" t="s">
         <v>382</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       <c r="B105" t="s">
         <v>383</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       <c r="B106" t="s">
         <v>384</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       <c r="B107" t="s">
         <v>385</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       <c r="B108" t="s">
         <v>386</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       <c r="B109" t="s">
         <v>387</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       <c r="B110" t="s">
         <v>388</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       <c r="B111" t="s">
         <v>389</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       <c r="B112" t="s">
         <v>390</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3019,8 +3019,8 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
+++ b/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WBG\Work\Code\DECAT_Space2Stats\space2stats_api\src\space2stats_ingest\METADATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5888E43-BA6B-4027-B8B1-3929AE80742A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5D9324-A887-4DD7-BF34-728E6F79C6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47895" yWindow="-7935" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Catalog" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="356">
   <si>
     <t>Group</t>
   </si>
@@ -1014,6 +1014,100 @@
   </si>
   <si>
     <t>Sum of VIIRS nighttlime lights brightness for 2024</t>
+  </si>
+  <si>
+    <t>Built area</t>
+  </si>
+  <si>
+    <t>Built area (in m2) in 5-year epochs. Source data report built area as total m2 built in 100m pixels at a global scale.</t>
+  </si>
+  <si>
+    <t>Zonal statistics are calculated as simple sum of built area in metres squared.</t>
+  </si>
+  <si>
+    <t>https://human-settlement.emergency.copernicus.eu/datasets.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesaresi M., Schiavina M., Politis P., Freire S., Krasnodębska K., Uhl J. H., Carioli A., Corbane C., Dijkstra L., Florio P., Friedrich H. K., Gao J., Leyk S., Lu L., Maffenini L., Mari-Rivero I., Melchiorri M., Syrris V., Van Den Hoek J., Kemper T. Advances on the Global Human Settlement Layer by joint assessment of Earth Observation and population survey data, International Journal of Digital Earth 17 (1), 2024 10.1080/17538947.2024.2390454
+</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>builtarea_ghsl</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_1985</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_1975</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_1980</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 1975</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 1980</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 1985</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_1990</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 1990</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_1995</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 1995</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_2000</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 2000</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_2005</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 2005</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_2010</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 2010</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_2015</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 2015</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_2020</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 2020</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_2025</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 2025</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_2030</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 2030</t>
   </si>
 </sst>
 </file>
@@ -1507,8 +1601,8 @@
   </sheetPr>
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2369,57 +2463,153 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="10"/>
+      <c r="A79" t="s">
+        <v>333</v>
+      </c>
+      <c r="B79" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="10"/>
-    </row>
-    <row r="81" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="10"/>
-    </row>
-    <row r="82" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="10"/>
-    </row>
-    <row r="83" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="10"/>
-    </row>
-    <row r="84" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="10"/>
-    </row>
-    <row r="85" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="10"/>
-    </row>
-    <row r="86" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="10"/>
-    </row>
-    <row r="87" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="10"/>
-    </row>
-    <row r="88" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="10"/>
-    </row>
-    <row r="89" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="10"/>
-    </row>
-    <row r="90" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="10"/>
-    </row>
-    <row r="91" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>334</v>
+      </c>
+      <c r="B80" t="s">
+        <v>336</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>332</v>
+      </c>
+      <c r="B81" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>338</v>
+      </c>
+      <c r="B82" t="s">
+        <v>339</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>340</v>
+      </c>
+      <c r="B83" t="s">
+        <v>341</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" t="s">
+        <v>343</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>344</v>
+      </c>
+      <c r="B85" t="s">
+        <v>345</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>346</v>
+      </c>
+      <c r="B86" t="s">
+        <v>347</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>348</v>
+      </c>
+      <c r="B87" t="s">
+        <v>349</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>350</v>
+      </c>
+      <c r="B88" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>352</v>
+      </c>
+      <c r="B89" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>354</v>
+      </c>
+      <c r="B90" t="s">
+        <v>355</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D93" s="10"/>
     </row>
-    <row r="94" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D94" s="10"/>
     </row>
-    <row r="95" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D95" s="10"/>
     </row>
-    <row r="96" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D96" s="10"/>
     </row>
     <row r="97" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2814,8 +3004,8 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3080,7 +3270,38 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="10"/>

--- a/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
+++ b/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WBG\Work\Code\DECAT_Space2Stats\space2stats_api\src\space2stats_ingest\METADATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB514197\Repos\DECAT_Space2Stats\space2stats_api\src\space2stats_ingest\METADATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5888E43-BA6B-4027-B8B1-3929AE80742A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B493A5BE-434F-44FD-93FC-0C4C8AA7A54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47895" yWindow="-7935" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="12090" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Catalog" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="331">
   <si>
     <t>Group</t>
   </si>
@@ -797,30 +797,6 @@
     <t>Total population female, 2020</t>
   </si>
   <si>
-    <t>ntl_sum_yyyymm</t>
-  </si>
-  <si>
-    <t>Sum of lights, monthly</t>
-  </si>
-  <si>
-    <t>flood_area_100</t>
-  </si>
-  <si>
-    <t>Area where flood depth is greater than 50 cm, 1-in-100 return period</t>
-  </si>
-  <si>
-    <t>acled_events_yyyy</t>
-  </si>
-  <si>
-    <t>Sum of conflict events in a given year</t>
-  </si>
-  <si>
-    <t>acled_fatalities_yyyy</t>
-  </si>
-  <si>
-    <t>Sum of estimated fatalities from conflict events in a given year</t>
-  </si>
-  <si>
     <t>pop</t>
   </si>
   <si>
@@ -1014,6 +990,48 @@
   </si>
   <si>
     <t>Sum of VIIRS nighttlime lights brightness for 2024</t>
+  </si>
+  <si>
+    <t>Standardized Precipitation Index (SPI)</t>
+  </si>
+  <si>
+    <t>Index for a given timescale measuring drought severity based on precipitation anomalies (SPI) </t>
+  </si>
+  <si>
+    <t>CHIRPS3</t>
+  </si>
+  <si>
+    <t>Climate Hazards Center, World Bank</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>Processed by Benny Instanto (GOST). The SPI was constructed with a 6-month timescale window based on precidipation data from CHIRPS. The resulting index is standardized (-3 to +3) and stored as a netcdf (~5km resolution). The netcdf was converted to h3 using the h3ronpy raster_to_dataframe function which uses the centroid value for each cell.</t>
+  </si>
+  <si>
+    <t>5km</t>
+  </si>
+  <si>
+    <t>spi</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>Standardized Precipitation Index (SPI), 6-month timescale</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Month, formatted as YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1164,6 +1182,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1182,8 +1203,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table7" displayName="Table7" ref="A1:D221" totalsRowShown="0">
-  <autoFilter ref="A1:D221" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table7" displayName="Table7" ref="A1:D217" totalsRowShown="0">
+  <autoFilter ref="A1:D217" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="variable"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="description"/>
@@ -1505,21 +1526,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5234375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -1533,7 +1554,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -1544,7 +1565,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -1555,7 +1576,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -1566,7 +1587,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -1577,7 +1598,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -1588,7 +1609,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -1599,7 +1620,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -1610,7 +1631,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -1621,7 +1642,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -1632,7 +1653,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -1643,7 +1664,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>190</v>
       </c>
@@ -1654,7 +1675,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>192</v>
       </c>
@@ -1665,7 +1686,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -1676,7 +1697,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -1687,7 +1708,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -1698,7 +1719,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>200</v>
       </c>
@@ -1709,7 +1730,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -1720,7 +1741,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -1731,7 +1752,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -1742,7 +1763,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -1753,7 +1774,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -1764,7 +1785,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>212</v>
       </c>
@@ -1775,7 +1796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>214</v>
       </c>
@@ -1786,7 +1807,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>216</v>
       </c>
@@ -1797,7 +1818,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -1808,7 +1829,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -1819,7 +1840,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>222</v>
       </c>
@@ -1830,7 +1851,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -1841,7 +1862,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -1852,7 +1873,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>228</v>
       </c>
@@ -1863,7 +1884,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -1874,7 +1895,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>232</v>
       </c>
@@ -1885,7 +1906,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>234</v>
       </c>
@@ -1896,7 +1917,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>236</v>
       </c>
@@ -1907,7 +1928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>238</v>
       </c>
@@ -1918,7 +1939,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>240</v>
       </c>
@@ -1929,7 +1950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>242</v>
       </c>
@@ -1940,7 +1961,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>244</v>
       </c>
@@ -1951,7 +1972,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>246</v>
       </c>
@@ -1962,7 +1983,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>248</v>
       </c>
@@ -1973,7 +1994,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>250</v>
       </c>
@@ -1984,818 +2005,802 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>252</v>
       </c>
       <c r="B43" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>254</v>
       </c>
       <c r="B44" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>256</v>
       </c>
       <c r="B45" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" t="s">
         <v>258</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="D47" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
         <v>260</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D48" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" t="s">
         <v>261</v>
       </c>
-      <c r="D47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="D49" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>278</v>
+      </c>
+      <c r="B50" t="s">
         <v>262</v>
-      </c>
-      <c r="B48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>264</v>
-      </c>
-      <c r="B49" t="s">
-        <v>265</v>
-      </c>
-      <c r="D49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>282</v>
-      </c>
-      <c r="B50" t="s">
-        <v>266</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B51" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B53" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B54" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B55" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B59" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B60" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B61" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
+        <v>291</v>
+      </c>
+      <c r="B62" t="s">
+        <v>304</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>292</v>
+      </c>
+      <c r="B63" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" t="s">
+        <v>306</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
         <v>294</v>
       </c>
-      <c r="B62" t="s">
-        <v>278</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
         <v>295</v>
       </c>
-      <c r="B63" t="s">
-        <v>279</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B66" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
         <v>296</v>
       </c>
-      <c r="B64" t="s">
-        <v>280</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="B67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
         <v>297</v>
       </c>
-      <c r="B65" t="s">
-        <v>281</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B68" t="s">
+        <v>310</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B69" t="s">
+        <v>311</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
         <v>299</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B70" t="s">
         <v>312</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="D70" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
         <v>300</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B71" t="s">
         <v>313</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="D71" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
         <v>301</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B72" t="s">
         <v>314</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="D72" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
         <v>302</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" t="s">
         <v>315</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="D73" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
         <v>303</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B74" t="s">
         <v>316</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>304</v>
-      </c>
-      <c r="B71" t="s">
-        <v>317</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>305</v>
-      </c>
-      <c r="B72" t="s">
-        <v>318</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>306</v>
-      </c>
-      <c r="B73" t="s">
-        <v>319</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>307</v>
-      </c>
-      <c r="B74" t="s">
-        <v>320</v>
-      </c>
       <c r="D74" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B75" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="B76" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>310</v>
-      </c>
-      <c r="B77" t="s">
-        <v>323</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>311</v>
-      </c>
-      <c r="B78" t="s">
-        <v>324</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" s="10"/>
     </row>
-    <row r="82" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D82" s="10"/>
     </row>
-    <row r="83" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D85" s="10"/>
     </row>
-    <row r="86" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D86" s="10"/>
     </row>
-    <row r="87" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D87" s="10"/>
     </row>
-    <row r="88" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D88" s="10"/>
     </row>
-    <row r="89" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D89" s="10"/>
     </row>
-    <row r="90" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D90" s="10"/>
     </row>
-    <row r="91" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D93" s="10"/>
     </row>
-    <row r="94" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D94" s="10"/>
     </row>
-    <row r="95" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D95" s="10"/>
     </row>
-    <row r="96" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D96" s="10"/>
     </row>
-    <row r="97" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D97" s="10"/>
     </row>
-    <row r="98" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D98" s="10"/>
     </row>
-    <row r="99" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D101" s="10"/>
     </row>
-    <row r="102" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D102" s="10"/>
     </row>
-    <row r="103" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D103" s="10"/>
     </row>
-    <row r="104" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D104" s="10"/>
     </row>
-    <row r="105" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D105" s="10"/>
     </row>
-    <row r="106" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D106" s="10"/>
     </row>
-    <row r="107" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D107" s="10"/>
     </row>
-    <row r="108" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D108" s="10"/>
     </row>
-    <row r="109" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D109" s="10"/>
     </row>
-    <row r="110" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D110" s="10"/>
     </row>
-    <row r="111" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D111" s="10"/>
     </row>
-    <row r="112" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D112" s="10"/>
     </row>
-    <row r="113" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D113" s="10"/>
     </row>
-    <row r="114" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D114" s="10"/>
     </row>
-    <row r="115" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D115" s="10"/>
     </row>
-    <row r="116" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D116" s="10"/>
     </row>
-    <row r="117" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D117" s="10"/>
     </row>
-    <row r="118" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D118" s="10"/>
     </row>
-    <row r="119" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D119" s="10"/>
     </row>
-    <row r="120" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D120" s="10"/>
     </row>
-    <row r="121" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D121" s="10"/>
     </row>
-    <row r="122" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D122" s="10"/>
     </row>
-    <row r="123" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D123" s="10"/>
     </row>
-    <row r="124" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D124" s="10"/>
     </row>
-    <row r="125" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D125" s="10"/>
     </row>
-    <row r="126" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D126" s="10"/>
     </row>
-    <row r="127" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D127" s="10"/>
     </row>
-    <row r="128" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D128" s="10"/>
     </row>
-    <row r="129" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D129" s="10"/>
     </row>
-    <row r="130" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D130" s="10"/>
     </row>
-    <row r="131" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D131" s="10"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D132" s="10"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D133" s="10"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D134" s="10"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D135" s="10"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D136" s="10"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D137" s="10"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D138" s="10"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D139" s="10"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D140" s="10"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D141" s="10"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D142" s="10"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D143" s="10"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D144" s="10"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D145" s="10"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D146" s="10"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D147" s="10"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D148" s="10"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D149" s="10"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D150" s="10"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D151" s="10"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D152" s="10"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D153" s="10"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D154" s="10"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D155" s="10"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D156" s="10"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D157" s="10"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D158" s="10"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D159" s="10"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D160" s="10"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D161" s="10"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D162" s="10"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D163" s="10"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D164" s="10"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D165" s="10"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D166" s="10"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D167" s="10"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D168" s="10"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D169" s="10"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D170" s="10"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D171" s="10"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D172" s="10"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D173" s="10"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D174" s="10"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D175" s="10"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D176" s="10"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D177" s="10"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D178" s="10"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D179" s="10"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D180" s="10"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D181" s="10"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D182" s="10"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D183" s="10"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D184" s="10"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D185" s="10"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D186" s="10"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D187" s="10"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D188" s="10"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D189" s="10"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D190" s="10"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D191" s="10"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D192" s="10"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D193" s="10"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D194" s="10"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D195" s="10"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D196" s="10"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D197" s="10"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D198" s="10"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D199" s="10"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D200" s="10"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D201" s="10"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D202" s="10"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D203" s="10"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D204" s="10"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D205" s="10"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D206" s="10"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D207" s="10"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D208" s="10"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D209" s="10"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D210" s="10"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D211" s="10"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D212" s="10"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D213" s="10"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D214" s="10"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D215" s="10"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D216" s="10"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D217" s="10"/>
-    </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D218" s="10"/>
-    </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D219" s="10"/>
-    </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D220" s="10"/>
-    </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D221" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2814,26 +2819,26 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.89453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.1015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.41796875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="7" t="s">
         <v>105</v>
       </c>
@@ -2864,8 +2869,14 @@
       <c r="J1" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>113</v>
       </c>
@@ -2897,7 +2908,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
         <v>123</v>
       </c>
@@ -2926,10 +2937,10 @@
         <v>130</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>131</v>
       </c>
@@ -2958,7 +2969,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>131</v>
       </c>
@@ -2990,7 +3001,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>145</v>
       </c>
@@ -3019,7 +3030,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>145</v>
       </c>
@@ -3048,7 +3059,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>157</v>
       </c>
@@ -3080,40 +3091,78 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" s="14">
+        <v>38353</v>
+      </c>
+      <c r="L9" s="14">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3124,15 +3173,17 @@
   </sheetPr>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.5234375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3140,7 +3191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3148,7 +3199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -3156,7 +3207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -3164,7 +3215,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
@@ -3172,7 +3223,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>85</v>
       </c>
@@ -3180,7 +3231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>87</v>
       </c>
@@ -3188,7 +3239,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>89</v>
       </c>
@@ -3196,13 +3247,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>87</v>
       </c>
@@ -3210,7 +3261,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>92</v>
       </c>
@@ -3218,7 +3269,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
@@ -3226,7 +3277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -3234,7 +3285,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
@@ -3242,7 +3293,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>100</v>
       </c>
@@ -3250,7 +3301,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>101</v>
       </c>
@@ -3258,7 +3309,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>102</v>
       </c>
@@ -3266,24 +3317,24 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3301,14 +3352,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.68359375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3319,7 +3370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3330,7 +3381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3341,7 +3392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3352,7 +3403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3363,7 +3414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3374,7 +3425,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3382,7 +3433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -3393,7 +3444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3404,7 +3455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3412,7 +3463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3423,7 +3474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3431,7 +3482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3442,7 +3493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3453,7 +3504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3464,7 +3515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3472,7 +3523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,7 +3534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,7 +3545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -3505,7 +3556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -3513,7 +3564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3524,7 +3575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3535,7 +3586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3546,7 +3597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3557,7 +3608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -3568,7 +3619,7 @@
         <v>179.99999095999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3579,7 +3630,7 @@
         <v>-179.99999561999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3590,7 +3641,7 @@
         <v>89.987504549999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3601,7 +3652,7 @@
         <v>-89.987504549999997</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -3609,7 +3660,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3620,7 +3671,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3631,7 +3682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -3642,7 +3693,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3653,7 +3704,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -3664,7 +3715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -3672,7 +3723,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -3683,7 +3734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -3694,7 +3745,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -3705,7 +3756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -3716,7 +3767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -3727,7 +3778,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -3738,7 +3789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -3749,7 +3800,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -3760,7 +3811,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -3771,7 +3822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
         <v>73</v>
       </c>
@@ -3782,8 +3833,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
+++ b/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WBG\Work\Code\DECAT_Space2Stats\space2stats_api\src\space2stats_ingest\METADATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB514197\Repos\DECAT_Space2Stats\space2stats_api\src\space2stats_ingest\METADATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5D9324-A887-4DD7-BF34-728E6F79C6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ACBE1F-54BA-4C4A-90D7-1D3F06488675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Catalog" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="362">
   <si>
     <t>Group</t>
   </si>
@@ -797,30 +797,6 @@
     <t>Total population female, 2020</t>
   </si>
   <si>
-    <t>ntl_sum_yyyymm</t>
-  </si>
-  <si>
-    <t>Sum of lights, monthly</t>
-  </si>
-  <si>
-    <t>flood_area_100</t>
-  </si>
-  <si>
-    <t>Area where flood depth is greater than 50 cm, 1-in-100 return period</t>
-  </si>
-  <si>
-    <t>acled_events_yyyy</t>
-  </si>
-  <si>
-    <t>Sum of conflict events in a given year</t>
-  </si>
-  <si>
-    <t>acled_fatalities_yyyy</t>
-  </si>
-  <si>
-    <t>Sum of estimated fatalities from conflict events in a given year</t>
-  </si>
-  <si>
     <t>pop</t>
   </si>
   <si>
@@ -1014,6 +990,48 @@
   </si>
   <si>
     <t>Sum of VIIRS nighttlime lights brightness for 2024</t>
+  </si>
+  <si>
+    <t>Standardized Precipitation Index (SPI)</t>
+  </si>
+  <si>
+    <t>Index for a given timescale measuring drought severity based on precipitation anomalies (SPI) </t>
+  </si>
+  <si>
+    <t>CHIRPS3</t>
+  </si>
+  <si>
+    <t>Climate Hazards Center, World Bank</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>Processed by Benny Instanto (GOST). The SPI was constructed with a 6-month timescale window based on precidipation data from CHIRPS. The resulting index is standardized (-3 to +3) and stored as a netcdf (~5km resolution). The netcdf was converted to h3 using the h3ronpy raster_to_dataframe function which uses the centroid value for each cell.</t>
+  </si>
+  <si>
+    <t>5km</t>
+  </si>
+  <si>
+    <t>spi</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>Standardized Precipitation Index (SPI), 6-month timescale</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Month, formatted as YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
   </si>
   <si>
     <t>Built area</t>
@@ -1038,19 +1056,19 @@
     <t>builtarea_ghsl</t>
   </si>
   <si>
+    <t>sum_built_area_m_1975</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 1975</t>
+  </si>
+  <si>
+    <t>sum_built_area_m_1980</t>
+  </si>
+  <si>
+    <t>Total built area (m2) in 1980</t>
+  </si>
+  <si>
     <t>sum_built_area_m_1985</t>
-  </si>
-  <si>
-    <t>sum_built_area_m_1975</t>
-  </si>
-  <si>
-    <t>sum_built_area_m_1980</t>
-  </si>
-  <si>
-    <t>Total built area (m2) in 1975</t>
-  </si>
-  <si>
-    <t>Total built area (m2) in 1980</t>
   </si>
   <si>
     <t>Total built area (m2) in 1985</t>
@@ -1255,8 +1273,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1276,8 +1294,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table7" displayName="Table7" ref="A1:D221" totalsRowShown="0">
-  <autoFilter ref="A1:D221" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table7" displayName="Table7" ref="A1:D217" totalsRowShown="0">
+  <autoFilter ref="A1:D217" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="variable"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="description"/>
@@ -1599,21 +1617,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5234375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -1627,7 +1645,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -1649,7 +1667,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -1660,7 +1678,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -1671,7 +1689,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -1682,7 +1700,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -1693,7 +1711,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -1704,7 +1722,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -1715,7 +1733,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -1726,7 +1744,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -1737,7 +1755,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>190</v>
       </c>
@@ -1748,7 +1766,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>192</v>
       </c>
@@ -1759,7 +1777,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -1770,7 +1788,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -1781,7 +1799,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -1792,7 +1810,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>200</v>
       </c>
@@ -1803,7 +1821,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -1814,7 +1832,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -1825,7 +1843,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -1836,7 +1854,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -1847,7 +1865,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -1858,7 +1876,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>212</v>
       </c>
@@ -1869,7 +1887,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>214</v>
       </c>
@@ -1880,7 +1898,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>216</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -1902,7 +1920,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -1913,7 +1931,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>222</v>
       </c>
@@ -1924,7 +1942,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -1935,7 +1953,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -1946,7 +1964,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>228</v>
       </c>
@@ -1957,7 +1975,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -1968,7 +1986,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>232</v>
       </c>
@@ -1979,7 +1997,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>234</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>236</v>
       </c>
@@ -2001,7 +2019,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>238</v>
       </c>
@@ -2012,7 +2030,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>240</v>
       </c>
@@ -2023,7 +2041,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>242</v>
       </c>
@@ -2034,7 +2052,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>244</v>
       </c>
@@ -2045,7 +2063,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>246</v>
       </c>
@@ -2056,7 +2074,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>248</v>
       </c>
@@ -2067,7 +2085,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>250</v>
       </c>
@@ -2078,914 +2096,898 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>252</v>
       </c>
       <c r="B43" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>254</v>
       </c>
       <c r="B44" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>256</v>
       </c>
       <c r="B45" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" t="s">
         <v>258</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="D47" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
         <v>260</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D48" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" t="s">
         <v>261</v>
       </c>
-      <c r="D47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="D49" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>278</v>
+      </c>
+      <c r="B50" t="s">
         <v>262</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D50" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" t="s">
         <v>263</v>
       </c>
-      <c r="D48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="D51" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" t="s">
         <v>264</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D52" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" t="s">
         <v>265</v>
       </c>
-      <c r="D49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="D53" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
         <v>282</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B54" t="s">
         <v>266</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D54" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
         <v>283</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" t="s">
         <v>267</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D55" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
         <v>284</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B56" t="s">
         <v>268</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D56" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
         <v>285</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B57" t="s">
         <v>269</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D57" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
         <v>286</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B58" t="s">
         <v>270</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D58" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
         <v>287</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B59" t="s">
         <v>271</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D59" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
         <v>288</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B60" t="s">
         <v>272</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D60" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
         <v>289</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B61" t="s">
         <v>273</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D61" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>291</v>
+      </c>
+      <c r="B62" t="s">
+        <v>304</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B58" t="s">
-        <v>274</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>291</v>
-      </c>
-      <c r="B59" t="s">
-        <v>275</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    </row>
+    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
         <v>292</v>
       </c>
-      <c r="B60" t="s">
-        <v>276</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B63" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
         <v>293</v>
       </c>
-      <c r="B61" t="s">
-        <v>277</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B64" t="s">
+        <v>306</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
         <v>294</v>
       </c>
-      <c r="B62" t="s">
-        <v>278</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
         <v>295</v>
       </c>
-      <c r="B63" t="s">
-        <v>279</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B66" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
         <v>296</v>
       </c>
-      <c r="B64" t="s">
-        <v>280</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="B67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
         <v>297</v>
       </c>
-      <c r="B65" t="s">
-        <v>281</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B68" t="s">
+        <v>310</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B69" t="s">
+        <v>311</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
         <v>299</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B70" t="s">
         <v>312</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="D70" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
         <v>300</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B71" t="s">
         <v>313</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="D71" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
         <v>301</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B72" t="s">
         <v>314</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="D72" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
         <v>302</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" t="s">
         <v>315</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="D73" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
         <v>303</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B74" t="s">
         <v>316</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>304</v>
-      </c>
-      <c r="B71" t="s">
-        <v>317</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>305</v>
-      </c>
-      <c r="B72" t="s">
-        <v>318</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>306</v>
-      </c>
-      <c r="B73" t="s">
-        <v>319</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>307</v>
-      </c>
-      <c r="B74" t="s">
-        <v>320</v>
-      </c>
       <c r="D74" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B75" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="B76" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="B77" t="s">
-        <v>323</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="B78" t="s">
-        <v>324</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B79" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B80" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="B81" t="s">
+        <v>347</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B82" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B83" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B85" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B86" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B87" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B88" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>352</v>
-      </c>
-      <c r="B89" t="s">
-        <v>353</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>354</v>
-      </c>
-      <c r="B90" t="s">
-        <v>355</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D89" s="10"/>
+    </row>
+    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D93" s="10"/>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D94" s="10"/>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D95" s="10"/>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D96" s="10"/>
     </row>
-    <row r="97" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D97" s="10"/>
     </row>
-    <row r="98" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D98" s="10"/>
     </row>
-    <row r="99" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D101" s="10"/>
     </row>
-    <row r="102" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D102" s="10"/>
     </row>
-    <row r="103" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D103" s="10"/>
     </row>
-    <row r="104" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D104" s="10"/>
     </row>
-    <row r="105" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D105" s="10"/>
     </row>
-    <row r="106" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D106" s="10"/>
     </row>
-    <row r="107" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D107" s="10"/>
     </row>
-    <row r="108" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D108" s="10"/>
     </row>
-    <row r="109" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D109" s="10"/>
     </row>
-    <row r="110" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D110" s="10"/>
     </row>
-    <row r="111" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D111" s="10"/>
     </row>
-    <row r="112" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D112" s="10"/>
     </row>
-    <row r="113" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D113" s="10"/>
     </row>
-    <row r="114" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D114" s="10"/>
     </row>
-    <row r="115" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D115" s="10"/>
     </row>
-    <row r="116" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D116" s="10"/>
     </row>
-    <row r="117" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D117" s="10"/>
     </row>
-    <row r="118" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D118" s="10"/>
     </row>
-    <row r="119" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D119" s="10"/>
     </row>
-    <row r="120" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D120" s="10"/>
     </row>
-    <row r="121" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D121" s="10"/>
     </row>
-    <row r="122" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D122" s="10"/>
     </row>
-    <row r="123" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D123" s="10"/>
     </row>
-    <row r="124" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D124" s="10"/>
     </row>
-    <row r="125" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D125" s="10"/>
     </row>
-    <row r="126" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D126" s="10"/>
     </row>
-    <row r="127" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D127" s="10"/>
     </row>
-    <row r="128" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D128" s="10"/>
     </row>
-    <row r="129" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D129" s="10"/>
     </row>
-    <row r="130" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D130" s="10"/>
     </row>
-    <row r="131" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D131" s="10"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D132" s="10"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D133" s="10"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D134" s="10"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D135" s="10"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D136" s="10"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D137" s="10"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D138" s="10"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D139" s="10"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D140" s="10"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D141" s="10"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D142" s="10"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D143" s="10"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D144" s="10"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D145" s="10"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D146" s="10"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D147" s="10"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D148" s="10"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D149" s="10"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D150" s="10"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D151" s="10"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D152" s="10"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D153" s="10"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D154" s="10"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D155" s="10"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D156" s="10"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D157" s="10"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D158" s="10"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D159" s="10"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D160" s="10"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D161" s="10"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D162" s="10"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D163" s="10"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D164" s="10"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D165" s="10"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D166" s="10"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D167" s="10"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D168" s="10"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D169" s="10"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D170" s="10"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D171" s="10"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D172" s="10"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D173" s="10"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D174" s="10"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D175" s="10"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D176" s="10"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D177" s="10"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D178" s="10"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D179" s="10"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D180" s="10"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D181" s="10"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D182" s="10"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D183" s="10"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D184" s="10"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D185" s="10"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D186" s="10"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D187" s="10"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D188" s="10"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D189" s="10"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D190" s="10"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D191" s="10"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D192" s="10"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D193" s="10"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D194" s="10"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D195" s="10"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D196" s="10"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D197" s="10"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D198" s="10"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D199" s="10"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D200" s="10"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D201" s="10"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D202" s="10"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D203" s="10"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D204" s="10"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D205" s="10"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D206" s="10"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D207" s="10"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D208" s="10"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D209" s="10"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D210" s="10"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D211" s="10"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D212" s="10"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D213" s="10"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D214" s="10"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D215" s="10"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D216" s="10"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D217" s="10"/>
-    </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D218" s="10"/>
-    </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D219" s="10"/>
-    </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D220" s="10"/>
-    </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D221" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3004,26 +3006,26 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.89453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.1015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.41796875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="7" t="s">
         <v>105</v>
       </c>
@@ -3054,8 +3056,14 @@
       <c r="J1" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>113</v>
       </c>
@@ -3087,7 +3095,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
         <v>123</v>
       </c>
@@ -3116,10 +3124,10 @@
         <v>130</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>131</v>
       </c>
@@ -3148,7 +3156,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>131</v>
       </c>
@@ -3180,7 +3188,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>145</v>
       </c>
@@ -3209,7 +3217,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>145</v>
       </c>
@@ -3238,7 +3246,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>157</v>
       </c>
@@ -3270,71 +3278,109 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" s="13">
+        <v>38353</v>
+      </c>
+      <c r="L9" s="13">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="B10" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3345,15 +3391,17 @@
   </sheetPr>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.5234375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3361,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3369,7 +3417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -3377,7 +3425,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -3385,7 +3433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
@@ -3393,7 +3441,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>85</v>
       </c>
@@ -3401,7 +3449,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>87</v>
       </c>
@@ -3409,7 +3457,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>89</v>
       </c>
@@ -3417,13 +3465,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>87</v>
       </c>
@@ -3431,7 +3479,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>92</v>
       </c>
@@ -3439,7 +3487,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
@@ -3447,7 +3495,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -3455,7 +3503,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
@@ -3463,7 +3511,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>100</v>
       </c>
@@ -3471,7 +3519,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>101</v>
       </c>
@@ -3479,7 +3527,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>102</v>
       </c>
@@ -3487,24 +3535,24 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3522,14 +3570,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.68359375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3540,7 +3588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3551,7 +3599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3562,7 +3610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3573,7 +3621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3584,7 +3632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3595,7 +3643,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3603,7 +3651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -3614,7 +3662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3625,7 +3673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3633,7 +3681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3644,7 +3692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3652,7 +3700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,7 +3711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3674,7 +3722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3685,7 +3733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3693,7 +3741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3704,7 +3752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,7 +3763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -3726,7 +3774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -3734,7 +3782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3745,7 +3793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3756,7 +3804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3767,7 +3815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3778,7 +3826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -3789,7 +3837,7 @@
         <v>179.99999095999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3800,7 +3848,7 @@
         <v>-179.99999561999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3811,7 +3859,7 @@
         <v>89.987504549999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3822,7 +3870,7 @@
         <v>-89.987504549999997</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -3830,7 +3878,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3841,7 +3889,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3852,7 +3900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -3863,7 +3911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3874,7 +3922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -3885,7 +3933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -3893,7 +3941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -3904,7 +3952,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -3915,7 +3963,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -3926,7 +3974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -3937,7 +3985,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -3948,7 +3996,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -3959,7 +4007,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -3970,7 +4018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -3981,7 +4029,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -3992,7 +4040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
         <v>73</v>
       </c>
@@ -4003,8 +4051,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
+++ b/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB514197\Repos\DECAT_Space2Stats\space2stats_api\src\space2stats_ingest\METADATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ACBE1F-54BA-4C4A-90D7-1D3F06488675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DB45493-815B-4A26-B872-D4A7AF7CCD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Catalog" sheetId="1" r:id="rId1"/>
@@ -1619,19 +1619,19 @@
   </sheetPr>
   <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.1015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>190</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>192</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>200</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>212</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>214</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>216</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>222</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>228</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>232</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>234</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>236</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>238</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>240</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>242</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>244</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>246</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>248</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>250</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>252</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>254</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>256</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>274</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>275</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>276</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>277</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>278</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>279</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>280</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>281</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>282</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>283</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>284</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>285</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>286</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>287</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>288</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>289</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>291</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>292</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>293</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>294</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>295</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>296</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>297</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>298</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>299</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>300</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>301</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>302</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>303</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>324</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>327</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>338</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>340</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>342</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>344</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>346</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>348</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>350</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>352</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>354</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>356</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>358</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>360</v>
       </c>
@@ -2602,397 +2602,400 @@
         <v>337</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D89" s="10"/>
     </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" s="10"/>
     </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" s="10"/>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D94" s="10"/>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" s="10"/>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D96" s="10"/>
     </row>
-    <row r="97" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97" s="10"/>
     </row>
-    <row r="98" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98" s="10"/>
     </row>
-    <row r="99" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D101" s="10"/>
     </row>
-    <row r="102" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D102" s="10"/>
     </row>
-    <row r="103" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D103" s="10"/>
     </row>
-    <row r="104" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="10"/>
     </row>
-    <row r="105" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D105" s="10"/>
     </row>
-    <row r="106" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D106" s="10"/>
     </row>
-    <row r="107" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D107" s="10"/>
     </row>
-    <row r="108" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" s="10"/>
     </row>
-    <row r="109" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D109" s="10"/>
     </row>
-    <row r="110" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D110" s="10"/>
     </row>
-    <row r="111" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D111" s="10"/>
     </row>
-    <row r="112" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D112" s="10"/>
     </row>
-    <row r="113" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D113" s="10"/>
     </row>
-    <row r="114" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D114" s="10"/>
     </row>
-    <row r="115" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D115" s="10"/>
     </row>
-    <row r="116" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D116" s="10"/>
     </row>
-    <row r="117" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D117" s="10"/>
     </row>
-    <row r="118" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D118" s="10"/>
     </row>
-    <row r="119" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D119" s="10"/>
     </row>
-    <row r="120" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D120" s="10"/>
     </row>
-    <row r="121" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D121" s="10"/>
     </row>
-    <row r="122" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D122" s="10"/>
     </row>
-    <row r="123" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D123" s="10"/>
     </row>
-    <row r="124" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D124" s="10"/>
     </row>
-    <row r="125" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D125" s="10"/>
     </row>
-    <row r="126" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D126" s="10"/>
     </row>
-    <row r="127" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D127" s="10"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="10"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="10"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="10"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="10"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="10"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="10"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="10"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="10"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="10"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="10"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="10"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="10"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="10"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="10"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="10"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="10"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="10"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="10"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="10"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="10"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="10"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="10"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="10"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="10"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="10"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="10"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="10"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="10"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="10"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="10"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="10"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="10"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="10"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="10"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="10"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="10"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="10"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="10"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="10"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="10"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="10"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="10"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="10"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="10"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="10"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="10"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="10"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="10"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="10"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="10"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="10"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" s="10"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="10"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" s="10"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" s="10"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" s="10"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" s="10"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" s="10"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" s="10"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" s="10"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" s="10"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" s="10"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" s="10"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" s="10"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" s="10"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" s="10"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" s="10"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" s="10"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" s="10"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" s="10"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" s="10"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" s="10"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" s="10"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" s="10"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" s="10"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" s="10"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" s="10"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" s="10"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206" s="10"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" s="10"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208" s="10"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209" s="10"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D210" s="10"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211" s="10"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D212" s="10"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213" s="10"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D214" s="10"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215" s="10"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D216" s="10"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Official Use Only</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -3004,28 +3007,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.89453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1015625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.68359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.5234375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.1015625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.68359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.68359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1015625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.68359375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.41796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>105</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>113</v>
       </c>
@@ -3095,7 +3098,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>123</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>131</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>131</v>
       </c>
@@ -3188,7 +3191,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>145</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>145</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>157</v>
       </c>
@@ -3278,109 +3281,107 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K10" s="13">
         <v>38353</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L10" s="13">
         <v>45627</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Official Use Only</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3395,13 +3396,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.68359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>85</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>87</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>89</v>
       </c>
@@ -3465,13 +3466,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>87</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>92</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>100</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>101</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>102</v>
       </c>
@@ -3535,26 +3536,29 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Official Use Only</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -3570,14 +3574,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.89453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3588,7 +3592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3599,7 +3603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3610,7 +3614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3621,7 +3625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -3662,7 +3666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3681,7 +3685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3692,7 +3696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3711,7 +3715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3722,7 +3726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3733,7 +3737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3741,7 +3745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -3763,7 +3767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,7 +3778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3793,7 +3797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -3837,7 +3841,7 @@
         <v>179.99999095999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3848,7 +3852,7 @@
         <v>-179.99999561999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3859,7 +3863,7 @@
         <v>89.987504549999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3870,7 +3874,7 @@
         <v>-89.987504549999997</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -3878,7 +3882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3889,7 +3893,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3900,7 +3904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -3911,7 +3915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3922,7 +3926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -3933,7 +3937,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -3941,7 +3945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -3952,7 +3956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -3963,7 +3967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -3974,7 +3978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -3985,7 +3989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -3996,7 +4000,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -4007,7 +4011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -4018,7 +4022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -4029,7 +4033,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>73</v>
       </c>
@@ -4051,10 +4055,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="47" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Official Use Only</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
+++ b/space2stats_api/src/space2stats_ingest/METADATA/Space2Stats Metadata Content.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Feature Catalog"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="398">
   <si>
     <t>Group</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Collaborator</t>
   </si>
   <si>
-    <t>Andres Chamorro</t>
+    <t>Andres Chamorro, Gabriel Levin</t>
   </si>
   <si>
     <t>Classification</t>
@@ -605,511 +605,280 @@
     <t>Feature unique identifier</t>
   </si>
   <si>
-    <t>sum_pop_2020</t>
+    <t>sum_f_00_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 0 to 1, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_10_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 10 to 15, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_15_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 15 to 20, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_01_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 1 to 10, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_20_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 20 to 25, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_25_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 25 to 30, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_30_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 30 to 35, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_35_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 35 to 40, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_40_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 40 to 45, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_45_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 45 to 50, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_50_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 50 to 55, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_55_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 55 to 60, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_05_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 5 to 10, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_60_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 60 to 65, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_65_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 65 to 70, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_70_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 70 to 75, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_75_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 75 to 80, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_80_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 80 to 85, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_85_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 85 to 90, 2025</t>
+  </si>
+  <si>
+    <t>sum_f_90_2025</t>
+  </si>
+  <si>
+    <t>Total population female, ages 90 and above, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_00_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 0 to 1, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_10_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 10 to 15, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_15_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 15 to 20, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_01_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 1 to 10, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_20_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 20 to 25, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_25_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 25 to 30, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_30_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 30 to 35, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_35_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 35 to 40, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_40_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 40 to 45, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_45_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 45 to 50, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_50_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 50 to 55, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_55_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 55 to 60, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_05_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 5 to 10, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_60_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 60 to 65, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_65_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 65 to 70, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_70_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 70 to 75, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_75_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 75 to 80, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_80_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 80 to 85, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_85_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 85 to 90, 2025</t>
+  </si>
+  <si>
+    <t>sum_m_90_2025</t>
+  </si>
+  <si>
+    <t>Total population male, ages 90 and above, 2025</t>
+  </si>
+  <si>
+    <t>sum_pop_2015</t>
+  </si>
+  <si>
+    <t>Total population, 2015</t>
+  </si>
+  <si>
+    <t>sum_pop_2016</t>
+  </si>
+  <si>
+    <t>Total population, 2016</t>
+  </si>
+  <si>
+    <t>sum_pop_2017</t>
+  </si>
+  <si>
+    <t>Total population, 2017</t>
+  </si>
+  <si>
+    <t>sum_pop_2018</t>
+  </si>
+  <si>
+    <t>Total population, 2018</t>
+  </si>
+  <si>
+    <t>sum_pop_2019</t>
+  </si>
+  <si>
+    <t>Total population, 2019</t>
+  </si>
+  <si>
+    <t>sum_pop_2020_2</t>
   </si>
   <si>
     <t>Total population, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_0_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 0 to 1, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_10_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 10 to 15, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_15_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 15 to 20, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_1_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 1 to 10, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_20_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 20 to 25, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_25_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 25 to 30, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_30_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 30 to 35, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_35_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 35 to 40, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_40_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 40 to 45, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_45_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 45 to 50, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_50_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 50 to 55, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_55_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 55 to 60, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_5_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 5 to 10, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_60_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 60 to 65, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_65_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 65 to 70, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_70_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 70 to 75, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_75_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 75 to 80, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_80_2020</t>
-  </si>
-  <si>
-    <t>Total population female, ages 80 and above, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_0_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 0 to 1, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_10_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 10 to 15, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_15_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 15 to 20, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_1_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 1 to 10, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_20_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 20 to 25, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_25_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 25 to 30, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_30_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 30 to 35, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_35_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 35 to 40, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_40_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 40 to 45, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_45_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 45 to 50, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_50_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 50 to 55, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_55_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 55 to 60, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_5_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 5 to 10, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_60_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 60 to 65, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_65_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 65 to 70, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_70_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 70 to 75, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_75_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 75 to 80, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_80_2020</t>
-  </si>
-  <si>
-    <t>Total population male, ages 80 and above, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_m_2020</t>
-  </si>
-  <si>
-    <t>Total population male, 2020</t>
-  </si>
-  <si>
-    <t>sum_pop_f_2020</t>
-  </si>
-  <si>
-    <t>Total population female, 2020</t>
-  </si>
-  <si>
-    <t>sum_f_00_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 0 to 1, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_10_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 10 to 15, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_15_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 15 to 20, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_01_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 1 to 10, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_20_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 20 to 25, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_25_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 25 to 30, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_30_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 30 to 35, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_35_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 35 to 40, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_40_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 40 to 45, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_45_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 45 to 50, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_50_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 50 to 55, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_55_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 55 to 60, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_05_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 5 to 10, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_60_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 60 to 65, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_65_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 65 to 70, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_70_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 70 to 75, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_75_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 75 to 80, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_80_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 80 to 85, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_85_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 85 to 90, 2025</t>
-  </si>
-  <si>
-    <t>sum_f_90_2025</t>
-  </si>
-  <si>
-    <t>Total population female, ages 90 and above, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_00_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 0 to 1, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_10_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 10 to 15, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_15_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 15 to 20, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_01_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 1 to 10, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_20_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 20 to 25, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_25_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 25 to 30, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_30_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 30 to 35, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_35_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 35 to 40, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_40_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 40 to 45, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_45_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 45 to 50, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_50_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 50 to 55, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_55_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 55 to 60, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_05_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 5 to 10, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_60_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 60 to 65, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_65_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 65 to 70, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_70_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 70 to 75, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_75_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 75 to 80, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_80_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 80 to 85, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_85_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 85 to 90, 2025</t>
-  </si>
-  <si>
-    <t>sum_m_90_2025</t>
-  </si>
-  <si>
-    <t>Total population male, ages 90 and above, 2025</t>
-  </si>
-  <si>
-    <t>sum_pop_2015</t>
-  </si>
-  <si>
-    <t>Total population, 2015</t>
-  </si>
-  <si>
-    <t>sum_pop_2016</t>
-  </si>
-  <si>
-    <t>Total population, 2016</t>
-  </si>
-  <si>
-    <t>sum_pop_2017</t>
-  </si>
-  <si>
-    <t>Total population, 2017</t>
-  </si>
-  <si>
-    <t>sum_pop_2018</t>
-  </si>
-  <si>
-    <t>Total population, 2018</t>
-  </si>
-  <si>
-    <t>sum_pop_2019</t>
-  </si>
-  <si>
-    <t>Total population, 2019</t>
-  </si>
-  <si>
-    <t>sum_pop_2020_2</t>
   </si>
   <si>
     <t>sum_pop_2021</t>
@@ -1453,7 +1222,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1464,12 +1233,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1952,148 +1715,151 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2102,40 +1868,37 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2440,9 +2203,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2472,11 +2235,11 @@
       <c r="A2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="6"/>
@@ -2494,2120 +2257,1886 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>124</v>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>124</v>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>124</v>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>124</v>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>124</v>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="7" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>124</v>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="7" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>124</v>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="7" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>124</v>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="A20" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="3"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="52"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="52"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="A23" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>124</v>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="A24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="7" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="A25" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>124</v>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="7" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="A27" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>124</v>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="A28" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="7" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="A29" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
-        <v>124</v>
+      <c r="C29" s="58"/>
+      <c r="D29" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="7" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>124</v>
+      <c r="C31" s="58"/>
+      <c r="D31" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
-      <c r="A33" s="7" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="56" t="s">
         <v>252</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
-        <v>124</v>
+      <c r="C33" s="58"/>
+      <c r="D33" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
-      <c r="A34" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
-      <c r="A35" s="7" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
-        <v>124</v>
+      <c r="C35" s="58"/>
+      <c r="D35" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
-      <c r="A36" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
-      <c r="A37" s="7" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>124</v>
+      <c r="C37" s="58"/>
+      <c r="D37" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
-      <c r="A38" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="7" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
-        <v>124</v>
+      <c r="C39" s="58"/>
+      <c r="D39" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
-      <c r="A40" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
+      <c r="A40" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
-      <c r="A41" s="7" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
-        <v>124</v>
+      <c r="C41" s="58"/>
+      <c r="D41" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
-      <c r="A42" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
-      <c r="A43" s="9"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+      <c r="C42" s="58"/>
+      <c r="D42" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="58"/>
+      <c r="D43" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="60"/>
+      <c r="D44" s="59" t="s">
         <v>126</v>
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
-      <c r="A45" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="B45" s="57" t="s">
-        <v>275</v>
-      </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="58" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="56" t="s">
         <v>126</v>
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="59" t="s">
         <v>126</v>
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="B47" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="58" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="56" t="s">
         <v>126</v>
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="59" t="s">
         <v>126</v>
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
-      <c r="A49" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="58" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="56" t="s">
         <v>126</v>
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="59" t="s">
         <v>126</v>
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
-      <c r="A51" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="B51" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="58" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="56" t="s">
         <v>126</v>
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C52" s="7"/>
+        <v>291</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="56" t="s">
         <v>126</v>
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
-      <c r="A53" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="B53" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="58" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="59" t="s">
         <v>126</v>
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C54" s="7"/>
+        <v>295</v>
+      </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="56" t="s">
         <v>126</v>
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
-      <c r="A55" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="B55" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="58" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="59" t="s">
         <v>126</v>
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C56" s="7"/>
+        <v>299</v>
+      </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="56" t="s">
         <v>126</v>
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
-      <c r="A57" s="56" t="s">
-        <v>298</v>
-      </c>
-      <c r="B57" s="57" t="s">
-        <v>299</v>
-      </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="58" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="59" t="s">
         <v>126</v>
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C58" s="7"/>
+        <v>303</v>
+      </c>
+      <c r="C58" s="3"/>
       <c r="D58" s="56" t="s">
         <v>126</v>
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
-      <c r="A59" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="B59" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="58" t="s">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="59" t="s">
         <v>126</v>
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
-      <c r="A60" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="56" t="s">
-        <v>126</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="59" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="20.25">
+      <c r="A61" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="59" t="s">
+      <c r="C61" s="61"/>
+      <c r="D61" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="A62" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
-      <c r="A63" s="56" t="s">
+      <c r="C62" s="58"/>
+      <c r="D62" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="58" t="s">
-        <v>126</v>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
-      <c r="A64" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
-      <c r="A65" s="56" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E64" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="A65" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C65" s="55"/>
-      <c r="D65" s="58" t="s">
-        <v>126</v>
+      <c r="C65" s="7"/>
+      <c r="D65" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
-      <c r="A66" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
-      <c r="A67" s="56" t="s">
+      <c r="C66" s="58"/>
+      <c r="D66" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E66" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="58" t="s">
-        <v>126</v>
+      <c r="C67" s="7"/>
+      <c r="D67" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
-      <c r="A68" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
-      <c r="A69" s="56" t="s">
+      <c r="C68" s="58"/>
+      <c r="D68" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C69" s="55"/>
-      <c r="D69" s="58" t="s">
-        <v>126</v>
+      <c r="C69" s="7"/>
+      <c r="D69" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
-      <c r="A70" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
-      <c r="A71" s="56" t="s">
+      <c r="C70" s="58"/>
+      <c r="D70" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="58" t="s">
-        <v>126</v>
+      <c r="C71" s="7"/>
+      <c r="D71" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
-      <c r="A72" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
-      <c r="A73" s="56" t="s">
+      <c r="C72" s="58"/>
+      <c r="D72" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E72" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C73" s="55"/>
-      <c r="D73" s="56" t="s">
-        <v>126</v>
+      <c r="C73" s="7"/>
+      <c r="D73" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
-      <c r="A74" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
-      <c r="A75" s="56" t="s">
+      <c r="C74" s="58"/>
+      <c r="D74" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C75" s="55"/>
-      <c r="D75" s="56" t="s">
-        <v>126</v>
+      <c r="C75" s="7"/>
+      <c r="D75" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
-      <c r="A76" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
-      <c r="A77" s="56" t="s">
+      <c r="C76" s="58"/>
+      <c r="D76" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B77" s="57" t="s">
+      <c r="B77" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C77" s="55"/>
-      <c r="D77" s="56" t="s">
-        <v>126</v>
+      <c r="C77" s="7"/>
+      <c r="D77" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
-      <c r="A78" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
-      <c r="A79" s="56" t="s">
+      <c r="C78" s="58"/>
+      <c r="D78" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C79" s="55"/>
-      <c r="D79" s="56" t="s">
-        <v>126</v>
+      <c r="C79" s="7"/>
+      <c r="D79" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
-      <c r="A80" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="E80" s="3"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B81" s="59" t="s">
+      <c r="B81" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C81" s="55"/>
-      <c r="D81" s="56" t="s">
-        <v>126</v>
+      <c r="C81" s="7"/>
+      <c r="D81" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="E81" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="56" t="s">
+      <c r="A82" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B82" s="59" t="s">
+      <c r="B82" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="C82" s="55"/>
-      <c r="D82" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
-      <c r="A83" s="56" t="s">
+      <c r="C82" s="58"/>
+      <c r="D82" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B83" s="57" t="s">
+      <c r="B83" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C83" s="55"/>
-      <c r="D83" s="56" t="s">
-        <v>126</v>
+      <c r="C83" s="7"/>
+      <c r="D83" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
-      <c r="A84" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="C84" s="60"/>
-      <c r="D84" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
-      <c r="A85" s="3" t="s">
+      <c r="C84" s="58"/>
+      <c r="D84" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="56" t="s">
-        <v>126</v>
+      <c r="C85" s="7"/>
+      <c r="D85" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
-      <c r="A86" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="58" t="s">
         <v>357</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
-      <c r="A87" s="3" t="s">
+      <c r="C86" s="58"/>
+      <c r="D86" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="56" t="s">
-        <v>126</v>
+      <c r="C87" s="7"/>
+      <c r="D87" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
-      <c r="A88" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="58" t="s">
         <v>361</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
-      <c r="A89" s="3" t="s">
+      <c r="C88" s="58"/>
+      <c r="D88" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="56" t="s">
-        <v>126</v>
+      <c r="B89" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
-      <c r="A90" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B90" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
-      <c r="A91" s="3" t="s">
+      <c r="B90" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C90" s="58"/>
+      <c r="D90" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="56" t="s">
-        <v>126</v>
+      <c r="B91" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
-      <c r="A92" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B92" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
-      <c r="A93" s="3" t="s">
+      <c r="B92" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C92" s="58"/>
+      <c r="D92" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="58" t="s">
-        <v>126</v>
+      <c r="B93" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
-      <c r="A94" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B94" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
-      <c r="A95" s="3" t="s">
+      <c r="B94" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C94" s="58"/>
+      <c r="D94" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="E94" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="58" t="s">
-        <v>126</v>
+      <c r="B95" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
-      <c r="A96" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="B96" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E96" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
-      <c r="A97" s="3" t="s">
+      <c r="B96" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="C96" s="58"/>
+      <c r="D96" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="E96" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="58" t="s">
-        <v>126</v>
+      <c r="B97" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
-      <c r="A98" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B98" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E98" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
-      <c r="A99" s="3" t="s">
+      <c r="B98" s="58" t="s">
         <v>381</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="C98" s="58"/>
+      <c r="D98" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="E98" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="58" t="s">
-        <v>126</v>
+      <c r="B99" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
-      <c r="A101" s="61" t="s">
-        <v>383</v>
-      </c>
-      <c r="B101" s="61" t="s">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C101" s="61"/>
-      <c r="D101" s="61" t="s">
-        <v>149</v>
+      <c r="B100" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="C100" s="58"/>
+      <c r="D100" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="E100" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="B102" s="55" t="s">
-        <v>386</v>
-      </c>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55" t="s">
-        <v>149</v>
+        <v>388</v>
+      </c>
+      <c r="B102" s="58" t="s">
+        <v>389</v>
+      </c>
+      <c r="C102" s="58"/>
+      <c r="D102" s="62" t="s">
+        <v>176</v>
       </c>
       <c r="E102" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C103" s="7"/>
-      <c r="D103" s="7" t="s">
-        <v>149</v>
+      <c r="D103" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="E103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="B104" s="55" t="s">
-        <v>390</v>
-      </c>
-      <c r="C104" s="55"/>
+        <v>392</v>
+      </c>
+      <c r="B104" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="C104" s="58"/>
       <c r="D104" s="62" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E104" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="26" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="B106" s="55" t="s">
-        <v>394</v>
-      </c>
-      <c r="C106" s="55"/>
+        <v>396</v>
+      </c>
+      <c r="B106" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="C106" s="58"/>
       <c r="D106" s="62" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E106" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
-      <c r="A107" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>396</v>
-      </c>
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
       <c r="C107" s="7"/>
-      <c r="D107" s="26" t="s">
-        <v>169</v>
-      </c>
+      <c r="D107" s="26"/>
       <c r="E107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
-      <c r="A108" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="B108" s="55" t="s">
-        <v>398</v>
-      </c>
-      <c r="C108" s="55"/>
-      <c r="D108" s="62" t="s">
-        <v>169</v>
-      </c>
+      <c r="A108" s="9"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="62"/>
       <c r="E108" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
-      <c r="A109" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>400</v>
-      </c>
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
       <c r="C109" s="7"/>
-      <c r="D109" s="26" t="s">
-        <v>169</v>
-      </c>
+      <c r="D109" s="26"/>
       <c r="E109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
-      <c r="A110" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="B110" s="55" t="s">
-        <v>402</v>
-      </c>
-      <c r="C110" s="55"/>
-      <c r="D110" s="62" t="s">
-        <v>169</v>
-      </c>
+      <c r="A110" s="9"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="62"/>
       <c r="E110" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
-      <c r="A111" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>404</v>
-      </c>
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
       <c r="C111" s="7"/>
-      <c r="D111" s="26" t="s">
-        <v>169</v>
-      </c>
+      <c r="D111" s="26"/>
       <c r="E111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
-      <c r="A112" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="B112" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="C112" s="55"/>
-      <c r="D112" s="62" t="s">
-        <v>169</v>
-      </c>
+      <c r="A112" s="9"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="62"/>
       <c r="E112" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
-      <c r="A113" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>408</v>
-      </c>
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
       <c r="C113" s="7"/>
-      <c r="D113" s="26" t="s">
-        <v>169</v>
-      </c>
+      <c r="D113" s="26"/>
       <c r="E113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
-      <c r="A114" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="B114" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="C114" s="55"/>
-      <c r="D114" s="62" t="s">
-        <v>169</v>
-      </c>
+      <c r="A114" s="9"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="62"/>
       <c r="E114" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
-      <c r="A115" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
       <c r="C115" s="7"/>
-      <c r="D115" s="26" t="s">
-        <v>169</v>
-      </c>
+      <c r="D115" s="26"/>
       <c r="E115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
-      <c r="A116" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="B116" s="55" t="s">
-        <v>414</v>
-      </c>
-      <c r="C116" s="55"/>
-      <c r="D116" s="62" t="s">
-        <v>169</v>
-      </c>
+      <c r="A116" s="9"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="62"/>
       <c r="E116" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
-      <c r="A117" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>416</v>
-      </c>
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
       <c r="C117" s="7"/>
-      <c r="D117" s="26" t="s">
-        <v>169</v>
-      </c>
+      <c r="D117" s="26"/>
       <c r="E117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
-      <c r="A118" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B118" s="55" t="s">
-        <v>418</v>
-      </c>
-      <c r="C118" s="55"/>
-      <c r="D118" s="62" t="s">
-        <v>169</v>
-      </c>
+      <c r="A118" s="9"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="62"/>
       <c r="E118" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
-      <c r="A119" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>420</v>
-      </c>
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
       <c r="C119" s="7"/>
-      <c r="D119" s="26" t="s">
-        <v>169</v>
-      </c>
+      <c r="D119" s="26"/>
       <c r="E119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
-      <c r="A120" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="B120" s="55" t="s">
-        <v>422</v>
-      </c>
-      <c r="C120" s="55"/>
-      <c r="D120" s="62" t="s">
-        <v>135</v>
-      </c>
+      <c r="A120" s="9"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="62"/>
       <c r="E120" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
-      <c r="A121" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
       <c r="C121" s="7"/>
-      <c r="D121" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="D121" s="26"/>
       <c r="E121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
-      <c r="A122" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B122" s="55" t="s">
-        <v>426</v>
-      </c>
-      <c r="C122" s="55"/>
-      <c r="D122" s="62" t="s">
-        <v>135</v>
-      </c>
+      <c r="A122" s="9"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="62"/>
       <c r="E122" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
-      <c r="A123" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>428</v>
-      </c>
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
       <c r="C123" s="7"/>
-      <c r="D123" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="D123" s="26"/>
       <c r="E123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
-      <c r="A124" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="B124" s="55" t="s">
-        <v>430</v>
-      </c>
-      <c r="C124" s="55"/>
-      <c r="D124" s="62" t="s">
-        <v>135</v>
-      </c>
+      <c r="A124" s="9"/>
+      <c r="B124" s="58"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="62"/>
       <c r="E124" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
-      <c r="A125" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>432</v>
-      </c>
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
       <c r="C125" s="7"/>
-      <c r="D125" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="D125" s="26"/>
       <c r="E125" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
-      <c r="A126" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="B126" s="55" t="s">
-        <v>434</v>
-      </c>
-      <c r="C126" s="55"/>
-      <c r="D126" s="62" t="s">
-        <v>135</v>
-      </c>
+      <c r="A126" s="9"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="58"/>
+      <c r="D126" s="62"/>
       <c r="E126" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
-      <c r="A127" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>436</v>
-      </c>
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
       <c r="C127" s="7"/>
-      <c r="D127" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="D127" s="26"/>
       <c r="E127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
-      <c r="A128" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="B128" s="55" t="s">
-        <v>438</v>
-      </c>
-      <c r="C128" s="55"/>
-      <c r="D128" s="62" t="s">
-        <v>135</v>
-      </c>
+      <c r="A128" s="9"/>
+      <c r="B128" s="58"/>
+      <c r="C128" s="58"/>
+      <c r="D128" s="62"/>
       <c r="E128" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
-      <c r="A129" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>440</v>
-      </c>
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
       <c r="C129" s="7"/>
-      <c r="D129" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="D129" s="26"/>
       <c r="E129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
-      <c r="A130" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="B130" s="55" t="s">
-        <v>442</v>
-      </c>
-      <c r="C130" s="55"/>
-      <c r="D130" s="62" t="s">
-        <v>135</v>
-      </c>
+      <c r="A130" s="9"/>
+      <c r="B130" s="58"/>
+      <c r="C130" s="58"/>
+      <c r="D130" s="62"/>
       <c r="E130" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
-      <c r="A131" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>444</v>
-      </c>
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
       <c r="C131" s="7"/>
-      <c r="D131" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="D131" s="26"/>
       <c r="E131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
-      <c r="A132" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="B132" s="55" t="s">
-        <v>446</v>
-      </c>
-      <c r="C132" s="55"/>
-      <c r="D132" s="62" t="s">
-        <v>135</v>
-      </c>
+      <c r="A132" s="9"/>
+      <c r="B132" s="58"/>
+      <c r="C132" s="58"/>
+      <c r="D132" s="62"/>
       <c r="E132" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
-      <c r="A133" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>448</v>
-      </c>
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
       <c r="C133" s="7"/>
-      <c r="D133" s="26" t="s">
-        <v>184</v>
-      </c>
+      <c r="D133" s="26"/>
       <c r="E133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
-      <c r="A134" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="B134" s="55" t="s">
-        <v>450</v>
-      </c>
-      <c r="C134" s="55"/>
-      <c r="D134" s="62" t="s">
-        <v>184</v>
-      </c>
+      <c r="A134" s="9"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="62"/>
       <c r="E134" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
-      <c r="A135" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>452</v>
-      </c>
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
       <c r="C135" s="7"/>
-      <c r="D135" s="26" t="s">
-        <v>176</v>
-      </c>
+      <c r="D135" s="26"/>
       <c r="E135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
-      <c r="A136" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="B136" s="55" t="s">
-        <v>454</v>
-      </c>
-      <c r="C136" s="55"/>
-      <c r="D136" s="62" t="s">
-        <v>176</v>
-      </c>
+      <c r="A136" s="9"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="62"/>
       <c r="E136" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
-      <c r="A137" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>456</v>
-      </c>
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
       <c r="C137" s="7"/>
-      <c r="D137" s="26" t="s">
-        <v>176</v>
-      </c>
+      <c r="D137" s="26"/>
       <c r="E137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
-      <c r="A138" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B138" s="55" t="s">
-        <v>458</v>
-      </c>
-      <c r="C138" s="55"/>
-      <c r="D138" s="62" t="s">
-        <v>176</v>
-      </c>
+      <c r="A138" s="9"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="62"/>
       <c r="E138" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
-      <c r="A139" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>460</v>
-      </c>
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
       <c r="C139" s="7"/>
-      <c r="D139" s="26" t="s">
-        <v>176</v>
-      </c>
+      <c r="D139" s="26"/>
       <c r="E139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
-      <c r="A140" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="B140" s="55" t="s">
-        <v>462</v>
-      </c>
-      <c r="C140" s="55"/>
-      <c r="D140" s="62" t="s">
-        <v>176</v>
-      </c>
+      <c r="A140" s="9"/>
+      <c r="B140" s="58"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="62"/>
       <c r="E140" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
-      <c r="A141" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>464</v>
-      </c>
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
       <c r="C141" s="7"/>
-      <c r="D141" s="26" t="s">
-        <v>176</v>
-      </c>
+      <c r="D141" s="26"/>
       <c r="E141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
-      <c r="A142" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="B142" s="55" t="s">
-        <v>466</v>
-      </c>
-      <c r="C142" s="55"/>
-      <c r="D142" s="62" t="s">
-        <v>176</v>
-      </c>
+      <c r="A142" s="9"/>
+      <c r="B142" s="58"/>
+      <c r="C142" s="58"/>
+      <c r="D142" s="62"/>
       <c r="E142" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
-      <c r="A143" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>468</v>
-      </c>
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
       <c r="C143" s="7"/>
-      <c r="D143" s="26" t="s">
-        <v>176</v>
-      </c>
+      <c r="D143" s="26"/>
       <c r="E143" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
-      <c r="A144" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="B144" s="55" t="s">
-        <v>470</v>
-      </c>
-      <c r="C144" s="55"/>
-      <c r="D144" s="62" t="s">
-        <v>176</v>
-      </c>
+      <c r="A144" s="9"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="58"/>
+      <c r="D144" s="62"/>
       <c r="E144" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
-      <c r="A145" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>472</v>
-      </c>
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
       <c r="C145" s="7"/>
-      <c r="D145" s="26" t="s">
-        <v>176</v>
-      </c>
+      <c r="D145" s="26"/>
       <c r="E145" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
-      <c r="A146" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="B146" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="C146" s="55"/>
-      <c r="D146" s="62" t="s">
-        <v>176</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="13.550000000000002">
+      <c r="A146" s="9"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="62"/>
       <c r="E146" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="13.550000000000002">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="26"/>
       <c r="E147" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="13.550000000000002">
       <c r="A148" s="9"/>
-      <c r="B148" s="55"/>
-      <c r="C148" s="55"/>
+      <c r="B148" s="58"/>
+      <c r="C148" s="58"/>
       <c r="D148" s="62"/>
       <c r="E148" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="13.550000000000002">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="26"/>
       <c r="E149" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="13.550000000000002">
       <c r="A150" s="9"/>
-      <c r="B150" s="55"/>
-      <c r="C150" s="55"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="58"/>
       <c r="D150" s="62"/>
       <c r="E150" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="13.550000000000002">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="26"/>
       <c r="E151" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="13.550000000000002">
       <c r="A152" s="9"/>
-      <c r="B152" s="55"/>
-      <c r="C152" s="55"/>
+      <c r="B152" s="58"/>
+      <c r="C152" s="58"/>
       <c r="D152" s="62"/>
       <c r="E152" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="13.550000000000002">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="26"/>
       <c r="E153" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="13.550000000000002">
       <c r="A154" s="9"/>
-      <c r="B154" s="55"/>
-      <c r="C154" s="55"/>
+      <c r="B154" s="58"/>
+      <c r="C154" s="58"/>
       <c r="D154" s="62"/>
       <c r="E154" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="13.550000000000002">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="26"/>
       <c r="E155" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="13.550000000000002">
       <c r="A156" s="9"/>
-      <c r="B156" s="55"/>
-      <c r="C156" s="55"/>
+      <c r="B156" s="58"/>
+      <c r="C156" s="58"/>
       <c r="D156" s="62"/>
       <c r="E156" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="13.550000000000002">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="26"/>
       <c r="E157" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="13.550000000000002">
       <c r="A158" s="9"/>
-      <c r="B158" s="55"/>
-      <c r="C158" s="55"/>
+      <c r="B158" s="58"/>
+      <c r="C158" s="58"/>
       <c r="D158" s="62"/>
       <c r="E158" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="13.550000000000002">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="26"/>
       <c r="E159" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="13.550000000000002">
       <c r="A160" s="9"/>
-      <c r="B160" s="55"/>
-      <c r="C160" s="55"/>
+      <c r="B160" s="58"/>
+      <c r="C160" s="58"/>
       <c r="D160" s="62"/>
       <c r="E160" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="13.550000000000002">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="26"/>
       <c r="E161" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="13.550000000000002">
       <c r="A162" s="9"/>
-      <c r="B162" s="55"/>
-      <c r="C162" s="55"/>
+      <c r="B162" s="58"/>
+      <c r="C162" s="58"/>
       <c r="D162" s="62"/>
       <c r="E162" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="13.550000000000002">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="26"/>
       <c r="E163" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="13.550000000000002">
       <c r="A164" s="9"/>
-      <c r="B164" s="55"/>
-      <c r="C164" s="55"/>
+      <c r="B164" s="58"/>
+      <c r="C164" s="58"/>
       <c r="D164" s="62"/>
       <c r="E164" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="13.550000000000002">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="26"/>
       <c r="E165" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="13.550000000000002">
       <c r="A166" s="9"/>
-      <c r="B166" s="55"/>
-      <c r="C166" s="55"/>
+      <c r="B166" s="58"/>
+      <c r="C166" s="58"/>
       <c r="D166" s="62"/>
       <c r="E166" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="13.550000000000002">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="26"/>
       <c r="E167" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="13.550000000000002">
       <c r="A168" s="9"/>
-      <c r="B168" s="55"/>
-      <c r="C168" s="55"/>
+      <c r="B168" s="58"/>
+      <c r="C168" s="58"/>
       <c r="D168" s="62"/>
       <c r="E168" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="13.550000000000002">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="26"/>
       <c r="E169" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="13.550000000000002">
       <c r="A170" s="9"/>
-      <c r="B170" s="55"/>
-      <c r="C170" s="55"/>
+      <c r="B170" s="58"/>
+      <c r="C170" s="58"/>
       <c r="D170" s="62"/>
       <c r="E170" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="13.550000000000002">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="26"/>
       <c r="E171" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="13.550000000000002">
       <c r="A172" s="9"/>
-      <c r="B172" s="55"/>
-      <c r="C172" s="55"/>
+      <c r="B172" s="58"/>
+      <c r="C172" s="58"/>
       <c r="D172" s="62"/>
       <c r="E172" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="13.550000000000002">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="26"/>
       <c r="E173" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="13.550000000000002">
       <c r="A174" s="9"/>
-      <c r="B174" s="55"/>
-      <c r="C174" s="55"/>
+      <c r="B174" s="58"/>
+      <c r="C174" s="58"/>
       <c r="D174" s="62"/>
       <c r="E174" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="13.550000000000002">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="26"/>
       <c r="E175" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="13.550000000000002">
       <c r="A176" s="9"/>
-      <c r="B176" s="55"/>
-      <c r="C176" s="55"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
       <c r="D176" s="62"/>
       <c r="E176" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="13.550000000000002">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="26"/>
       <c r="E177" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="13.550000000000002">
       <c r="A178" s="9"/>
-      <c r="B178" s="55"/>
-      <c r="C178" s="55"/>
+      <c r="B178" s="58"/>
+      <c r="C178" s="58"/>
       <c r="D178" s="62"/>
       <c r="E178" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="13.550000000000002">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="26"/>
       <c r="E179" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="13.550000000000002">
       <c r="A180" s="9"/>
-      <c r="B180" s="55"/>
-      <c r="C180" s="55"/>
+      <c r="B180" s="58"/>
+      <c r="C180" s="58"/>
       <c r="D180" s="62"/>
       <c r="E180" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="13.550000000000002">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="26"/>
       <c r="E181" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="13.550000000000002">
       <c r="A182" s="9"/>
-      <c r="B182" s="55"/>
-      <c r="C182" s="55"/>
+      <c r="B182" s="58"/>
+      <c r="C182" s="58"/>
       <c r="D182" s="62"/>
       <c r="E182" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="13.550000000000002">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="26"/>
       <c r="E183" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="13.550000000000002">
       <c r="A184" s="9"/>
-      <c r="B184" s="55"/>
-      <c r="C184" s="55"/>
+      <c r="B184" s="58"/>
+      <c r="C184" s="58"/>
       <c r="D184" s="62"/>
       <c r="E184" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="13.550000000000002">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -4616,8 +4145,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="13.550000000000002">
       <c r="A186" s="9"/>
-      <c r="B186" s="55"/>
-      <c r="C186" s="55"/>
+      <c r="B186" s="58"/>
+      <c r="C186" s="58"/>
       <c r="D186" s="62"/>
       <c r="E186" s="6"/>
     </row>
@@ -4630,8 +4159,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="13.550000000000002">
       <c r="A188" s="9"/>
-      <c r="B188" s="55"/>
-      <c r="C188" s="55"/>
+      <c r="B188" s="58"/>
+      <c r="C188" s="58"/>
       <c r="D188" s="62"/>
       <c r="E188" s="6"/>
     </row>
@@ -4644,8 +4173,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="13.550000000000002">
       <c r="A190" s="9"/>
-      <c r="B190" s="55"/>
-      <c r="C190" s="55"/>
+      <c r="B190" s="58"/>
+      <c r="C190" s="58"/>
       <c r="D190" s="62"/>
       <c r="E190" s="6"/>
     </row>
@@ -4658,8 +4187,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="13.550000000000002">
       <c r="A192" s="9"/>
-      <c r="B192" s="55"/>
-      <c r="C192" s="55"/>
+      <c r="B192" s="58"/>
+      <c r="C192" s="58"/>
       <c r="D192" s="62"/>
       <c r="E192" s="6"/>
     </row>
@@ -4672,8 +4201,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="13.550000000000002">
       <c r="A194" s="9"/>
-      <c r="B194" s="55"/>
-      <c r="C194" s="55"/>
+      <c r="B194" s="58"/>
+      <c r="C194" s="58"/>
       <c r="D194" s="62"/>
       <c r="E194" s="6"/>
     </row>
@@ -4686,8 +4215,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="13.550000000000002">
       <c r="A196" s="9"/>
-      <c r="B196" s="55"/>
-      <c r="C196" s="55"/>
+      <c r="B196" s="58"/>
+      <c r="C196" s="58"/>
       <c r="D196" s="62"/>
       <c r="E196" s="6"/>
     </row>
@@ -4700,8 +4229,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="13.550000000000002">
       <c r="A198" s="9"/>
-      <c r="B198" s="55"/>
-      <c r="C198" s="55"/>
+      <c r="B198" s="58"/>
+      <c r="C198" s="58"/>
       <c r="D198" s="62"/>
       <c r="E198" s="6"/>
     </row>
@@ -4714,8 +4243,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="13.550000000000002">
       <c r="A200" s="9"/>
-      <c r="B200" s="55"/>
-      <c r="C200" s="55"/>
+      <c r="B200" s="58"/>
+      <c r="C200" s="58"/>
       <c r="D200" s="62"/>
       <c r="E200" s="6"/>
     </row>
@@ -4728,8 +4257,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="13.550000000000002">
       <c r="A202" s="9"/>
-      <c r="B202" s="55"/>
-      <c r="C202" s="55"/>
+      <c r="B202" s="58"/>
+      <c r="C202" s="58"/>
       <c r="D202" s="62"/>
       <c r="E202" s="6"/>
     </row>
@@ -4742,8 +4271,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="13.550000000000002">
       <c r="A204" s="9"/>
-      <c r="B204" s="55"/>
-      <c r="C204" s="55"/>
+      <c r="B204" s="58"/>
+      <c r="C204" s="58"/>
       <c r="D204" s="62"/>
       <c r="E204" s="6"/>
     </row>
@@ -4756,8 +4285,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="13.550000000000002">
       <c r="A206" s="9"/>
-      <c r="B206" s="55"/>
-      <c r="C206" s="55"/>
+      <c r="B206" s="58"/>
+      <c r="C206" s="58"/>
       <c r="D206" s="62"/>
       <c r="E206" s="6"/>
     </row>
@@ -4770,8 +4299,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="13.550000000000002">
       <c r="A208" s="9"/>
-      <c r="B208" s="55"/>
-      <c r="C208" s="55"/>
+      <c r="B208" s="58"/>
+      <c r="C208" s="58"/>
       <c r="D208" s="62"/>
       <c r="E208" s="6"/>
     </row>
@@ -4784,8 +4313,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="13.550000000000002">
       <c r="A210" s="9"/>
-      <c r="B210" s="55"/>
-      <c r="C210" s="55"/>
+      <c r="B210" s="58"/>
+      <c r="C210" s="58"/>
       <c r="D210" s="62"/>
       <c r="E210" s="6"/>
     </row>
@@ -4798,8 +4327,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="13.550000000000002">
       <c r="A212" s="9"/>
-      <c r="B212" s="55"/>
-      <c r="C212" s="55"/>
+      <c r="B212" s="58"/>
+      <c r="C212" s="58"/>
       <c r="D212" s="62"/>
       <c r="E212" s="6"/>
     </row>
@@ -4812,8 +4341,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="13.550000000000002">
       <c r="A214" s="9"/>
-      <c r="B214" s="55"/>
-      <c r="C214" s="55"/>
+      <c r="B214" s="58"/>
+      <c r="C214" s="58"/>
       <c r="D214" s="62"/>
       <c r="E214" s="6"/>
     </row>
@@ -4826,8 +4355,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="13.550000000000002">
       <c r="A216" s="9"/>
-      <c r="B216" s="55"/>
-      <c r="C216" s="55"/>
+      <c r="B216" s="58"/>
+      <c r="C216" s="58"/>
       <c r="D216" s="62"/>
       <c r="E216" s="6"/>
     </row>
@@ -4840,8 +4369,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="13.550000000000002">
       <c r="A218" s="9"/>
-      <c r="B218" s="55"/>
-      <c r="C218" s="55"/>
+      <c r="B218" s="58"/>
+      <c r="C218" s="58"/>
       <c r="D218" s="62"/>
       <c r="E218" s="6"/>
     </row>
@@ -4854,8 +4383,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="13.550000000000002">
       <c r="A220" s="9"/>
-      <c r="B220" s="55"/>
-      <c r="C220" s="55"/>
+      <c r="B220" s="58"/>
+      <c r="C220" s="58"/>
       <c r="D220" s="62"/>
       <c r="E220" s="6"/>
     </row>
@@ -4868,8 +4397,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="13.550000000000002">
       <c r="A222" s="9"/>
-      <c r="B222" s="55"/>
-      <c r="C222" s="55"/>
+      <c r="B222" s="58"/>
+      <c r="C222" s="58"/>
       <c r="D222" s="62"/>
       <c r="E222" s="6"/>
     </row>
@@ -4882,8 +4411,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="13.550000000000002">
       <c r="A224" s="9"/>
-      <c r="B224" s="55"/>
-      <c r="C224" s="55"/>
+      <c r="B224" s="58"/>
+      <c r="C224" s="58"/>
       <c r="D224" s="62"/>
       <c r="E224" s="6"/>
     </row>
@@ -4896,8 +4425,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="13.550000000000002">
       <c r="A226" s="9"/>
-      <c r="B226" s="55"/>
-      <c r="C226" s="55"/>
+      <c r="B226" s="58"/>
+      <c r="C226" s="58"/>
       <c r="D226" s="62"/>
       <c r="E226" s="6"/>
     </row>
@@ -4910,8 +4439,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="13.550000000000002">
       <c r="A228" s="9"/>
-      <c r="B228" s="55"/>
-      <c r="C228" s="55"/>
+      <c r="B228" s="58"/>
+      <c r="C228" s="58"/>
       <c r="D228" s="62"/>
       <c r="E228" s="6"/>
     </row>
@@ -4924,8 +4453,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="13.550000000000002">
       <c r="A230" s="9"/>
-      <c r="B230" s="55"/>
-      <c r="C230" s="55"/>
+      <c r="B230" s="58"/>
+      <c r="C230" s="58"/>
       <c r="D230" s="62"/>
       <c r="E230" s="6"/>
     </row>
@@ -4938,8 +4467,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="13.550000000000002">
       <c r="A232" s="9"/>
-      <c r="B232" s="55"/>
-      <c r="C232" s="55"/>
+      <c r="B232" s="58"/>
+      <c r="C232" s="58"/>
       <c r="D232" s="62"/>
       <c r="E232" s="6"/>
     </row>
@@ -4952,304 +4481,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="13.550000000000002">
       <c r="A234" s="9"/>
-      <c r="B234" s="55"/>
-      <c r="C234" s="55"/>
+      <c r="B234" s="58"/>
+      <c r="C234" s="58"/>
       <c r="D234" s="62"/>
       <c r="E234" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="13.550000000000002">
-      <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="26"/>
+      <c r="A235" s="63"/>
+      <c r="B235" s="63"/>
+      <c r="C235" s="63"/>
+      <c r="D235" s="64"/>
       <c r="E235" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="13.550000000000002">
-      <c r="A236" s="9"/>
-      <c r="B236" s="55"/>
-      <c r="C236" s="55"/>
-      <c r="D236" s="62"/>
-      <c r="E236" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="13.550000000000002">
-      <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="26"/>
-      <c r="E237" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="13.550000000000002">
-      <c r="A238" s="9"/>
-      <c r="B238" s="55"/>
-      <c r="C238" s="55"/>
-      <c r="D238" s="62"/>
-      <c r="E238" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="13.550000000000002">
-      <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="26"/>
-      <c r="E239" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="13.550000000000002">
-      <c r="A240" s="9"/>
-      <c r="B240" s="55"/>
-      <c r="C240" s="55"/>
-      <c r="D240" s="62"/>
-      <c r="E240" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="13.550000000000002">
-      <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="26"/>
-      <c r="E241" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="13.550000000000002">
-      <c r="A242" s="9"/>
-      <c r="B242" s="55"/>
-      <c r="C242" s="55"/>
-      <c r="D242" s="62"/>
-      <c r="E242" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="13.550000000000002">
-      <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
-      <c r="C243" s="7"/>
-      <c r="D243" s="26"/>
-      <c r="E243" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="13.550000000000002">
-      <c r="A244" s="9"/>
-      <c r="B244" s="55"/>
-      <c r="C244" s="55"/>
-      <c r="D244" s="62"/>
-      <c r="E244" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="13.550000000000002">
-      <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="26"/>
-      <c r="E245" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="13.550000000000002">
-      <c r="A246" s="9"/>
-      <c r="B246" s="55"/>
-      <c r="C246" s="55"/>
-      <c r="D246" s="62"/>
-      <c r="E246" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="13.550000000000002">
-      <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="26"/>
-      <c r="E247" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="13.550000000000002">
-      <c r="A248" s="9"/>
-      <c r="B248" s="55"/>
-      <c r="C248" s="55"/>
-      <c r="D248" s="62"/>
-      <c r="E248" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="13.550000000000002">
-      <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
-      <c r="C249" s="7"/>
-      <c r="D249" s="26"/>
-      <c r="E249" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="13.550000000000002">
-      <c r="A250" s="9"/>
-      <c r="B250" s="55"/>
-      <c r="C250" s="55"/>
-      <c r="D250" s="62"/>
-      <c r="E250" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="13.550000000000002">
-      <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="26"/>
-      <c r="E251" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="13.550000000000002">
-      <c r="A252" s="9"/>
-      <c r="B252" s="55"/>
-      <c r="C252" s="55"/>
-      <c r="D252" s="62"/>
-      <c r="E252" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="13.550000000000002">
-      <c r="A253" s="7"/>
-      <c r="B253" s="7"/>
-      <c r="C253" s="7"/>
-      <c r="D253" s="26"/>
-      <c r="E253" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="13.550000000000002">
-      <c r="A254" s="9"/>
-      <c r="B254" s="55"/>
-      <c r="C254" s="55"/>
-      <c r="D254" s="62"/>
-      <c r="E254" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="13.550000000000002">
-      <c r="A255" s="7"/>
-      <c r="B255" s="7"/>
-      <c r="C255" s="7"/>
-      <c r="D255" s="26"/>
-      <c r="E255" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="13.550000000000002">
-      <c r="A256" s="9"/>
-      <c r="B256" s="55"/>
-      <c r="C256" s="55"/>
-      <c r="D256" s="62"/>
-      <c r="E256" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="13.550000000000002">
-      <c r="A257" s="7"/>
-      <c r="B257" s="7"/>
-      <c r="C257" s="7"/>
-      <c r="D257" s="26"/>
-      <c r="E257" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="13.550000000000002">
-      <c r="A258" s="9"/>
-      <c r="B258" s="55"/>
-      <c r="C258" s="55"/>
-      <c r="D258" s="62"/>
-      <c r="E258" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="13.550000000000002">
-      <c r="A259" s="7"/>
-      <c r="B259" s="7"/>
-      <c r="C259" s="7"/>
-      <c r="D259" s="26"/>
-      <c r="E259" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="13.550000000000002">
-      <c r="A260" s="9"/>
-      <c r="B260" s="55"/>
-      <c r="C260" s="55"/>
-      <c r="D260" s="62"/>
-      <c r="E260" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="13.550000000000002">
-      <c r="A261" s="7"/>
-      <c r="B261" s="7"/>
-      <c r="C261" s="7"/>
-      <c r="D261" s="26"/>
-      <c r="E261" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="13.550000000000002">
-      <c r="A262" s="9"/>
-      <c r="B262" s="55"/>
-      <c r="C262" s="55"/>
-      <c r="D262" s="62"/>
-      <c r="E262" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="13.550000000000002">
-      <c r="A263" s="7"/>
-      <c r="B263" s="7"/>
-      <c r="C263" s="7"/>
-      <c r="D263" s="26"/>
-      <c r="E263" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="13.550000000000002">
-      <c r="A264" s="9"/>
-      <c r="B264" s="55"/>
-      <c r="C264" s="55"/>
-      <c r="D264" s="62"/>
-      <c r="E264" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="13.550000000000002">
-      <c r="A265" s="7"/>
-      <c r="B265" s="7"/>
-      <c r="C265" s="7"/>
-      <c r="D265" s="26"/>
-      <c r="E265" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="13.550000000000002">
-      <c r="A266" s="9"/>
-      <c r="B266" s="55"/>
-      <c r="C266" s="55"/>
-      <c r="D266" s="62"/>
-      <c r="E266" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="13.550000000000002">
-      <c r="A267" s="7"/>
-      <c r="B267" s="7"/>
-      <c r="C267" s="7"/>
-      <c r="D267" s="26"/>
-      <c r="E267" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="13.550000000000002">
-      <c r="A268" s="9"/>
-      <c r="B268" s="55"/>
-      <c r="C268" s="55"/>
-      <c r="D268" s="62"/>
-      <c r="E268" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="13.550000000000002">
-      <c r="A269" s="7"/>
-      <c r="B269" s="7"/>
-      <c r="C269" s="7"/>
-      <c r="D269" s="26"/>
-      <c r="E269" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="13.550000000000002">
-      <c r="A270" s="9"/>
-      <c r="B270" s="55"/>
-      <c r="C270" s="55"/>
-      <c r="D270" s="62"/>
-      <c r="E270" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="13.550000000000002">
-      <c r="A271" s="7"/>
-      <c r="B271" s="7"/>
-      <c r="C271" s="7"/>
-      <c r="D271" s="26"/>
-      <c r="E271" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="13.550000000000002">
-      <c r="A272" s="9"/>
-      <c r="B272" s="55"/>
-      <c r="C272" s="55"/>
-      <c r="D272" s="62"/>
-      <c r="E272" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="13.550000000000002">
-      <c r="A273" s="7"/>
-      <c r="B273" s="7"/>
-      <c r="C273" s="7"/>
-      <c r="D273" s="26"/>
-      <c r="E273" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="13.550000000000002">
-      <c r="A274" s="9"/>
-      <c r="B274" s="55"/>
-      <c r="C274" s="55"/>
-      <c r="D274" s="62"/>
-      <c r="E274" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="13.550000000000002">
-      <c r="A275" s="63"/>
-      <c r="B275" s="63"/>
-      <c r="C275" s="63"/>
-      <c r="D275" s="64"/>
-      <c r="E275" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="13.550000000000002">
-      <c r="A276" s="20"/>
-      <c r="B276" s="20"/>
-      <c r="C276" s="20"/>
-      <c r="D276" s="20"/>
-      <c r="E276" s="3"/>
+      <c r="A236" s="20"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5261,7 +4510,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5276,12 +4525,12 @@
     <col min="7" max="7" style="29" width="41.71928571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="29" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="29" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="51" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="52" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="52" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="53" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="53" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="53" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="22" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="54" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="54" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="29" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="29" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="29" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -5376,7 +4625,7 @@
         <v>118</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>120</v>
@@ -5391,7 +4640,7 @@
         <v>123</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="40"/>
@@ -5399,36 +4648,36 @@
       <c r="N3" s="41"/>
       <c r="O3" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="51.75" customFormat="1" s="34">
       <c r="A4" s="42" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>122</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
@@ -5436,53 +4685,55 @@
       <c r="N4" s="41"/>
       <c r="O4" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="62.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="28.5">
       <c r="A5" s="46" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H5" s="47" t="s">
         <v>122</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="48"/>
+        <v>134</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>135</v>
+      </c>
       <c r="K5" s="40"/>
       <c r="L5" s="40"/>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
       <c r="O5" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="62.25" customFormat="1" s="34">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="62.25">
       <c r="A6" s="49" t="s">
         <v>136</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E6" s="49" t="s">
         <v>140</v>
@@ -5494,49 +4745,49 @@
         <v>142</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>149</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="J6" s="49"/>
       <c r="K6" s="39"/>
       <c r="L6" s="40"/>
       <c r="M6" s="41"/>
       <c r="N6" s="41"/>
       <c r="O6" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="62.25" customFormat="1" s="34">
       <c r="A7" s="44" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" s="45"/>
+        <v>148</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>149</v>
+      </c>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="M7" s="41"/>
@@ -5548,13 +4799,13 @@
         <v>150</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>154</v>
@@ -5566,7 +4817,7 @@
         <v>156</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="I8" s="47" t="s">
         <v>158</v>
@@ -5578,61 +4829,59 @@
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="87" customFormat="1" s="34">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="28.5">
       <c r="A9" s="50" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H9" s="50" t="s">
         <v>122</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>169</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J9" s="50"/>
       <c r="K9" s="39"/>
       <c r="L9" s="40"/>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="135">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="87" customFormat="1" s="34">
       <c r="A10" s="44" t="s">
         <v>162</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G10" s="44" t="s">
         <v>167</v>
@@ -5641,10 +4890,10 @@
         <v>122</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
@@ -5652,60 +4901,80 @@
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="105">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="135">
       <c r="A11" s="41" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K11" s="40">
-        <v>38353</v>
-      </c>
-      <c r="L11" s="40">
-        <v>45627</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="40"/>
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="105">
+      <c r="A12" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" s="40">
+        <v>38353</v>
+      </c>
+      <c r="L12" s="40">
+        <v>45627</v>
+      </c>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
@@ -5778,6 +5047,23 @@
       <c r="N16" s="41"/>
       <c r="O16" s="41"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5790,7 +5076,7 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
